--- a/src/js/data/excels/duc_data.xlsx
+++ b/src/js/data/excels/duc_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs-f3\Public\OEA_OES_collaboration\DPI\DUCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E264C346-0355-4EA3-ACE2-5BA9B26AA268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA2AF9-0FE3-4459-ADA4-233AD1DDEAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="webSummary" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$AF$118</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$AF$119</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -754,13 +754,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF118"/>
+  <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="L106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="T101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF117" sqref="AF117"/>
+      <selection pane="bottomRight" activeCell="AF118" sqref="AF118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="13">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="16" t="s">
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="T5" s="13">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="16" t="s">
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="AB5" s="13">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="16" t="s">
@@ -1086,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="AF5" s="13">
-        <v>4473</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1094,7 +1094,7 @@
         <v>41640</v>
       </c>
       <c r="B6" s="19">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C6" s="18">
         <v>215</v>
@@ -1104,13 +1104,13 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="19">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G6" s="18">
         <v>108</v>
       </c>
       <c r="H6" s="13">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="19">
@@ -1140,7 +1140,7 @@
         <v>35</v>
       </c>
       <c r="T6" s="13">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="19">
@@ -1154,23 +1154,23 @@
       </c>
       <c r="Y6" s="13"/>
       <c r="Z6" s="19">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA6" s="18">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AB6" s="13">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AC6" s="13"/>
       <c r="AD6" s="19">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="AE6" s="18">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="AF6" s="13">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1188,13 +1188,13 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="19">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G7" s="18">
         <v>128</v>
       </c>
       <c r="H7" s="13">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="19">
@@ -1224,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="T7" s="13">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U7" s="13"/>
       <c r="V7" s="19">
@@ -1244,17 +1244,17 @@
         <v>520</v>
       </c>
       <c r="AB7" s="13">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AC7" s="13"/>
       <c r="AD7" s="19">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="AE7" s="18">
         <v>1481</v>
       </c>
       <c r="AF7" s="13">
-        <v>4825</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1278,7 +1278,7 @@
         <v>178</v>
       </c>
       <c r="H8" s="13">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="19">
@@ -1308,7 +1308,7 @@
         <v>46</v>
       </c>
       <c r="T8" s="13">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="19">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="Y8" s="13"/>
       <c r="Z8" s="19">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AA8" s="18">
         <v>624</v>
       </c>
       <c r="AB8" s="13">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AC8" s="13"/>
       <c r="AD8" s="19">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="AE8" s="18">
         <v>1874</v>
       </c>
       <c r="AF8" s="13">
-        <v>4659</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="19">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G9" s="18">
         <v>169</v>
@@ -1386,13 +1386,13 @@
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="19">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9" s="18">
         <v>54</v>
       </c>
       <c r="T9" s="13">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="19">
@@ -1406,23 +1406,23 @@
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="19">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AA9" s="18">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AB9" s="13">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="19">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="AE9" s="18">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="AF9" s="13">
-        <v>4777</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1476,7 +1476,7 @@
         <v>39</v>
       </c>
       <c r="T10" s="13">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="19">
@@ -1496,7 +1496,7 @@
         <v>629</v>
       </c>
       <c r="AB10" s="13">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="19">
@@ -1506,7 +1506,7 @@
         <v>1839</v>
       </c>
       <c r="AF10" s="13">
-        <v>4798</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1554,13 +1554,13 @@
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S11" s="18">
         <v>39</v>
       </c>
       <c r="T11" s="13">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="19">
@@ -1580,17 +1580,17 @@
         <v>616</v>
       </c>
       <c r="AB11" s="13">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AC11" s="13"/>
       <c r="AD11" s="19">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="AE11" s="18">
         <v>1834</v>
       </c>
       <c r="AF11" s="13">
-        <v>4880</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1608,13 +1608,13 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="19">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G12" s="18">
         <v>172</v>
       </c>
       <c r="H12" s="13">
-        <v>1248</v>
+        <v>1265</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="19">
@@ -1638,13 +1638,13 @@
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" s="18">
         <v>50</v>
       </c>
       <c r="T12" s="13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="19">
@@ -1661,20 +1661,20 @@
         <v>614</v>
       </c>
       <c r="AA12" s="18">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB12" s="13">
         <v>819</v>
       </c>
       <c r="AC12" s="13"/>
       <c r="AD12" s="19">
-        <v>1865</v>
+        <v>1883</v>
       </c>
       <c r="AE12" s="18">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AF12" s="13">
-        <v>4947</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1692,13 +1692,13 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="19">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G13" s="18">
         <v>192</v>
       </c>
       <c r="H13" s="13">
-        <v>1238</v>
+        <v>1261</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="19">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S13" s="18">
         <v>33</v>
@@ -1742,23 +1742,23 @@
       </c>
       <c r="Y13" s="13"/>
       <c r="Z13" s="19">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA13" s="18">
         <v>580</v>
       </c>
       <c r="AB13" s="13">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AC13" s="13"/>
       <c r="AD13" s="19">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="AE13" s="18">
         <v>1800</v>
       </c>
       <c r="AF13" s="13">
-        <v>5060</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1776,13 +1776,13 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="19">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G14" s="18">
         <v>217</v>
       </c>
       <c r="H14" s="13">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="19">
@@ -1826,23 +1826,23 @@
       </c>
       <c r="Y14" s="13"/>
       <c r="Z14" s="19">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AA14" s="18">
         <v>600</v>
       </c>
       <c r="AB14" s="13">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="AC14" s="13"/>
       <c r="AD14" s="19">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="AE14" s="18">
         <v>1869</v>
       </c>
       <c r="AF14" s="13">
-        <v>5190</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1866,7 +1866,7 @@
         <v>193</v>
       </c>
       <c r="H15" s="13">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="19">
@@ -1913,7 +1913,7 @@
         <v>693</v>
       </c>
       <c r="AA15" s="18">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AB15" s="13">
         <v>1005</v>
@@ -1923,10 +1923,10 @@
         <v>1944</v>
       </c>
       <c r="AE15" s="18">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="AF15" s="13">
-        <v>5169</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1950,7 +1950,7 @@
         <v>174</v>
       </c>
       <c r="H16" s="13">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="19">
@@ -2010,7 +2010,7 @@
         <v>1749</v>
       </c>
       <c r="AF16" s="13">
-        <v>5056</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2034,7 +2034,7 @@
         <v>179</v>
       </c>
       <c r="H17" s="13">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="19">
@@ -2081,20 +2081,20 @@
         <v>635</v>
       </c>
       <c r="AA17" s="18">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AB17" s="13">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AC17" s="13"/>
       <c r="AD17" s="19">
         <v>1877</v>
       </c>
       <c r="AE17" s="18">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="AF17" s="13">
-        <v>5147</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2118,7 +2118,7 @@
         <v>173</v>
       </c>
       <c r="H18" s="13">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="19">
@@ -2168,7 +2168,7 @@
         <v>476</v>
       </c>
       <c r="AB18" s="13">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AC18" s="13"/>
       <c r="AD18" s="19">
@@ -2178,7 +2178,7 @@
         <v>1601</v>
       </c>
       <c r="AF18" s="13">
-        <v>5361</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2202,7 +2202,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="13">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="19">
@@ -2226,13 +2226,13 @@
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S19" s="18">
         <v>39</v>
       </c>
       <c r="T19" s="13">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="19">
@@ -2252,17 +2252,17 @@
         <v>398</v>
       </c>
       <c r="AB19" s="13">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="AC19" s="13"/>
       <c r="AD19" s="19">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AE19" s="18">
         <v>1229</v>
       </c>
       <c r="AF19" s="13">
-        <v>5972</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2286,7 +2286,7 @@
         <v>146</v>
       </c>
       <c r="H20" s="13">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="19">
@@ -2310,13 +2310,13 @@
       </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S20" s="18">
         <v>35</v>
       </c>
       <c r="T20" s="13">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U20" s="13"/>
       <c r="V20" s="19">
@@ -2333,20 +2333,20 @@
         <v>395</v>
       </c>
       <c r="AA20" s="18">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB20" s="13">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="AC20" s="13"/>
       <c r="AD20" s="19">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AE20" s="18">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AF20" s="13">
-        <v>6048</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2370,7 +2370,7 @@
         <v>167</v>
       </c>
       <c r="H21" s="13">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="19">
@@ -2400,7 +2400,7 @@
         <v>34</v>
       </c>
       <c r="T21" s="13">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U21" s="13"/>
       <c r="V21" s="19">
@@ -2420,7 +2420,7 @@
         <v>323</v>
       </c>
       <c r="AB21" s="13">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="AC21" s="13"/>
       <c r="AD21" s="19">
@@ -2430,7 +2430,7 @@
         <v>1144</v>
       </c>
       <c r="AF21" s="13">
-        <v>6098</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2454,7 +2454,7 @@
         <v>166</v>
       </c>
       <c r="H22" s="13">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="19">
@@ -2484,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="T22" s="13">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="19">
@@ -2501,20 +2501,20 @@
         <v>274</v>
       </c>
       <c r="AA22" s="18">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB22" s="13">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="19">
         <v>1057</v>
       </c>
       <c r="AE22" s="18">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AF22" s="13">
-        <v>6094</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2538,7 +2538,7 @@
         <v>138</v>
       </c>
       <c r="H23" s="13">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="19">
@@ -2568,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="T23" s="13">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="19">
@@ -2585,20 +2585,20 @@
         <v>308</v>
       </c>
       <c r="AA23" s="18">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB23" s="13">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="AC23" s="13"/>
       <c r="AD23" s="19">
         <v>1026</v>
       </c>
       <c r="AE23" s="18">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF23" s="13">
-        <v>6068</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2622,7 +2622,7 @@
         <v>136</v>
       </c>
       <c r="H24" s="13">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="19">
@@ -2652,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="T24" s="13">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U24" s="13"/>
       <c r="V24" s="19">
@@ -2672,7 +2672,7 @@
         <v>367</v>
       </c>
       <c r="AB24" s="13">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="AC24" s="13"/>
       <c r="AD24" s="19">
@@ -2682,7 +2682,7 @@
         <v>1043</v>
       </c>
       <c r="AF24" s="13">
-        <v>6063</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2706,7 +2706,7 @@
         <v>135</v>
       </c>
       <c r="H25" s="13">
-        <v>1233</v>
+        <v>1248</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="19">
@@ -2736,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="T25" s="13">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U25" s="13"/>
       <c r="V25" s="19">
@@ -2756,7 +2756,7 @@
         <v>324</v>
       </c>
       <c r="AB25" s="13">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AC25" s="13"/>
       <c r="AD25" s="19">
@@ -2766,7 +2766,7 @@
         <v>1069</v>
       </c>
       <c r="AF25" s="13">
-        <v>6052</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2790,7 +2790,7 @@
         <v>141</v>
       </c>
       <c r="H26" s="13">
-        <v>1201</v>
+        <v>1216</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="19">
@@ -2820,7 +2820,7 @@
         <v>22</v>
       </c>
       <c r="T26" s="13">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U26" s="13"/>
       <c r="V26" s="19">
@@ -2840,7 +2840,7 @@
         <v>291</v>
       </c>
       <c r="AB26" s="13">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="19">
@@ -2850,7 +2850,7 @@
         <v>989</v>
       </c>
       <c r="AF26" s="13">
-        <v>6066</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2874,7 +2874,7 @@
         <v>120</v>
       </c>
       <c r="H27" s="13">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="19">
@@ -2904,7 +2904,7 @@
         <v>31</v>
       </c>
       <c r="T27" s="13">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U27" s="13"/>
       <c r="V27" s="19">
@@ -2924,7 +2924,7 @@
         <v>265</v>
       </c>
       <c r="AB27" s="13">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="19">
@@ -2934,7 +2934,7 @@
         <v>933</v>
       </c>
       <c r="AF27" s="13">
-        <v>6126</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2958,7 +2958,7 @@
         <v>99</v>
       </c>
       <c r="H28" s="13">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="19">
@@ -2988,7 +2988,7 @@
         <v>24</v>
       </c>
       <c r="T28" s="13">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U28" s="13"/>
       <c r="V28" s="19">
@@ -3008,7 +3008,7 @@
         <v>232</v>
       </c>
       <c r="AB28" s="13">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="19">
@@ -3018,7 +3018,7 @@
         <v>803</v>
       </c>
       <c r="AF28" s="13">
-        <v>6213</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3042,7 +3042,7 @@
         <v>105</v>
       </c>
       <c r="H29" s="13">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="19">
@@ -3072,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="T29" s="13">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="19">
@@ -3092,7 +3092,7 @@
         <v>238</v>
       </c>
       <c r="AB29" s="13">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="19">
@@ -3102,7 +3102,7 @@
         <v>756</v>
       </c>
       <c r="AF29" s="13">
-        <v>6285</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3126,7 +3126,7 @@
         <v>79</v>
       </c>
       <c r="H30" s="13">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="19">
@@ -3156,7 +3156,7 @@
         <v>17</v>
       </c>
       <c r="T30" s="13">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="19">
@@ -3176,7 +3176,7 @@
         <v>239</v>
       </c>
       <c r="AB30" s="13">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="AC30" s="14"/>
       <c r="AD30" s="19">
@@ -3186,7 +3186,7 @@
         <v>704</v>
       </c>
       <c r="AF30" s="13">
-        <v>6334</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3210,7 +3210,7 @@
         <v>84</v>
       </c>
       <c r="H31" s="13">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="19">
@@ -3240,7 +3240,7 @@
         <v>18</v>
       </c>
       <c r="T31" s="13">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="19">
@@ -3260,7 +3260,7 @@
         <v>220</v>
       </c>
       <c r="AB31" s="13">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="AC31" s="14"/>
       <c r="AD31" s="19">
@@ -3270,7 +3270,7 @@
         <v>665</v>
       </c>
       <c r="AF31" s="13">
-        <v>6299</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3294,7 +3294,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="13">
-        <v>1184</v>
+        <v>1199</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="19">
@@ -3324,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="T32" s="13">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U32" s="14"/>
       <c r="V32" s="19">
@@ -3341,20 +3341,20 @@
         <v>215</v>
       </c>
       <c r="AA32" s="18">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB32" s="13">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="AC32" s="14"/>
       <c r="AD32" s="19">
         <v>592</v>
       </c>
       <c r="AE32" s="18">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF32" s="13">
-        <v>6292</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3378,7 +3378,7 @@
         <v>71</v>
       </c>
       <c r="H33" s="13">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="19">
@@ -3402,13 +3402,13 @@
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S33" s="18">
         <v>25</v>
       </c>
       <c r="T33" s="13">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U33" s="14"/>
       <c r="V33" s="19">
@@ -3428,17 +3428,17 @@
         <v>217</v>
       </c>
       <c r="AB33" s="13">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="AC33" s="14"/>
       <c r="AD33" s="19">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AE33" s="18">
         <v>615</v>
       </c>
       <c r="AF33" s="13">
-        <v>6143</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3462,7 +3462,7 @@
         <v>79</v>
       </c>
       <c r="H34" s="13">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="19">
@@ -3492,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="T34" s="13">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U34" s="14"/>
       <c r="V34" s="19">
@@ -3509,20 +3509,20 @@
         <v>172</v>
       </c>
       <c r="AA34" s="18">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AB34" s="13">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="AC34" s="14"/>
       <c r="AD34" s="19">
         <v>488</v>
       </c>
       <c r="AE34" s="18">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF34" s="13">
-        <v>5996</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3546,7 +3546,7 @@
         <v>65</v>
       </c>
       <c r="H35" s="13">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="19">
@@ -3576,7 +3576,7 @@
         <v>27</v>
       </c>
       <c r="T35" s="13">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U35" s="14"/>
       <c r="V35" s="19">
@@ -3596,7 +3596,7 @@
         <v>224</v>
       </c>
       <c r="AB35" s="13">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="AC35" s="14"/>
       <c r="AD35" s="19">
@@ -3606,7 +3606,7 @@
         <v>618</v>
       </c>
       <c r="AF35" s="13">
-        <v>5861</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3630,7 +3630,7 @@
         <v>84</v>
       </c>
       <c r="H36" s="13">
-        <v>1090</v>
+        <v>1105</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="19">
@@ -3660,7 +3660,7 @@
         <v>19</v>
       </c>
       <c r="T36" s="13">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U36" s="14"/>
       <c r="V36" s="19">
@@ -3680,7 +3680,7 @@
         <v>191</v>
       </c>
       <c r="AB36" s="13">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="AC36" s="14"/>
       <c r="AD36" s="19">
@@ -3690,7 +3690,7 @@
         <v>634</v>
       </c>
       <c r="AF36" s="13">
-        <v>5729</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3714,7 +3714,7 @@
         <v>77</v>
       </c>
       <c r="H37" s="13">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="19">
@@ -3744,7 +3744,7 @@
         <v>27</v>
       </c>
       <c r="T37" s="13">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="19">
@@ -3761,20 +3761,20 @@
         <v>239</v>
       </c>
       <c r="AA37" s="18">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AB37" s="13">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="19">
         <v>605</v>
       </c>
       <c r="AE37" s="18">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AF37" s="13">
-        <v>5581</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3798,7 +3798,7 @@
         <v>72</v>
       </c>
       <c r="H38" s="13">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="19">
@@ -3828,7 +3828,7 @@
         <v>15</v>
       </c>
       <c r="T38" s="13">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="U38" s="14"/>
       <c r="V38" s="19">
@@ -3845,20 +3845,20 @@
         <v>252</v>
       </c>
       <c r="AA38" s="18">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AB38" s="13">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="AC38" s="14"/>
       <c r="AD38" s="19">
         <v>587</v>
       </c>
       <c r="AE38" s="18">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF38" s="13">
-        <v>5460</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3882,7 +3882,7 @@
         <v>97</v>
       </c>
       <c r="H39" s="13">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="19">
@@ -3912,7 +3912,7 @@
         <v>27</v>
       </c>
       <c r="T39" s="13">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U39" s="13"/>
       <c r="V39" s="19">
@@ -3929,20 +3929,20 @@
         <v>273</v>
       </c>
       <c r="AA39" s="18">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AB39" s="13">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="19">
         <v>653</v>
       </c>
       <c r="AE39" s="18">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF39" s="13">
-        <v>5331</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3966,7 +3966,7 @@
         <v>85</v>
       </c>
       <c r="H40" s="13">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="19">
@@ -3996,7 +3996,7 @@
         <v>23</v>
       </c>
       <c r="T40" s="13">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U40" s="13"/>
       <c r="V40" s="19">
@@ -4013,20 +4013,20 @@
         <v>303</v>
       </c>
       <c r="AA40" s="18">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB40" s="13">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="19">
         <v>694</v>
       </c>
       <c r="AE40" s="18">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF40" s="13">
-        <v>5243</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4050,7 +4050,7 @@
         <v>82</v>
       </c>
       <c r="H41" s="13">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="19">
@@ -4080,7 +4080,7 @@
         <v>31</v>
       </c>
       <c r="T41" s="13">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U41" s="13"/>
       <c r="V41" s="19">
@@ -4100,7 +4100,7 @@
         <v>252</v>
       </c>
       <c r="AB41" s="13">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="19">
@@ -4110,7 +4110,7 @@
         <v>666</v>
       </c>
       <c r="AF41" s="13">
-        <v>5270</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4134,7 +4134,7 @@
         <v>78</v>
       </c>
       <c r="H42" s="13">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="19">
@@ -4164,7 +4164,7 @@
         <v>24</v>
       </c>
       <c r="T42" s="13">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U42" s="13"/>
       <c r="V42" s="19">
@@ -4184,7 +4184,7 @@
         <v>260</v>
       </c>
       <c r="AB42" s="13">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="19">
@@ -4194,7 +4194,7 @@
         <v>730</v>
       </c>
       <c r="AF42" s="13">
-        <v>5423</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4218,7 +4218,7 @@
         <v>80</v>
       </c>
       <c r="H43" s="13">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="19">
@@ -4248,7 +4248,7 @@
         <v>22</v>
       </c>
       <c r="T43" s="13">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="19">
@@ -4268,7 +4268,7 @@
         <v>268</v>
       </c>
       <c r="AB43" s="13">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="19">
@@ -4278,7 +4278,7 @@
         <v>761</v>
       </c>
       <c r="AF43" s="13">
-        <v>5439</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="H44" s="13">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="19">
@@ -4332,7 +4332,7 @@
         <v>29</v>
       </c>
       <c r="T44" s="13">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U44" s="13"/>
       <c r="V44" s="19">
@@ -4352,7 +4352,7 @@
         <v>328</v>
       </c>
       <c r="AB44" s="13">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="19">
@@ -4362,7 +4362,7 @@
         <v>902</v>
       </c>
       <c r="AF44" s="13">
-        <v>5547</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4386,7 +4386,7 @@
         <v>106</v>
       </c>
       <c r="H45" s="13">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="19">
@@ -4416,7 +4416,7 @@
         <v>37</v>
       </c>
       <c r="T45" s="13">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U45" s="13"/>
       <c r="V45" s="19">
@@ -4436,7 +4436,7 @@
         <v>355</v>
       </c>
       <c r="AB45" s="13">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="19">
@@ -4446,7 +4446,7 @@
         <v>958</v>
       </c>
       <c r="AF45" s="13">
-        <v>5616</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4470,7 +4470,7 @@
         <v>101</v>
       </c>
       <c r="H46" s="13">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="19">
@@ -4500,7 +4500,7 @@
         <v>33</v>
       </c>
       <c r="T46" s="13">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U46" s="13"/>
       <c r="V46" s="19">
@@ -4520,7 +4520,7 @@
         <v>347</v>
       </c>
       <c r="AB46" s="13">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="19">
@@ -4530,7 +4530,7 @@
         <v>986</v>
       </c>
       <c r="AF46" s="13">
-        <v>5733</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4554,7 +4554,7 @@
         <v>117</v>
       </c>
       <c r="H47" s="13">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="19">
@@ -4584,7 +4584,7 @@
         <v>38</v>
       </c>
       <c r="T47" s="13">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U47" s="13"/>
       <c r="V47" s="19">
@@ -4604,7 +4604,7 @@
         <v>321</v>
       </c>
       <c r="AB47" s="13">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="19">
@@ -4614,7 +4614,7 @@
         <v>1011</v>
       </c>
       <c r="AF47" s="13">
-        <v>5705</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4638,7 +4638,7 @@
         <v>108</v>
       </c>
       <c r="H48" s="13">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="19">
@@ -4668,7 +4668,7 @@
         <v>43</v>
       </c>
       <c r="T48" s="13">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U48" s="13"/>
       <c r="V48" s="19">
@@ -4688,7 +4688,7 @@
         <v>317</v>
       </c>
       <c r="AB48" s="13">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="19">
@@ -4698,7 +4698,7 @@
         <v>995</v>
       </c>
       <c r="AF48" s="13">
-        <v>5865</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4722,7 +4722,7 @@
         <v>120</v>
       </c>
       <c r="H49" s="13">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="19">
@@ -4752,7 +4752,7 @@
         <v>45</v>
       </c>
       <c r="T49" s="13">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U49" s="13"/>
       <c r="V49" s="19">
@@ -4772,7 +4772,7 @@
         <v>375</v>
       </c>
       <c r="AB49" s="13">
-        <v>1798</v>
+        <v>1787</v>
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="19">
@@ -4782,7 +4782,7 @@
         <v>1114</v>
       </c>
       <c r="AF49" s="13">
-        <v>5978</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4806,7 +4806,7 @@
         <v>116</v>
       </c>
       <c r="H50" s="13">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="19">
@@ -4836,7 +4836,7 @@
         <v>37</v>
       </c>
       <c r="T50" s="13">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U50" s="13"/>
       <c r="V50" s="19">
@@ -4856,7 +4856,7 @@
         <v>387</v>
       </c>
       <c r="AB50" s="13">
-        <v>1871</v>
+        <v>1860</v>
       </c>
       <c r="AC50" s="13"/>
       <c r="AD50" s="19">
@@ -4866,7 +4866,7 @@
         <v>1104</v>
       </c>
       <c r="AF50" s="13">
-        <v>6044</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4890,7 +4890,7 @@
         <v>132</v>
       </c>
       <c r="H51" s="13">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="19">
@@ -4920,7 +4920,7 @@
         <v>41</v>
       </c>
       <c r="T51" s="13">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U51" s="13"/>
       <c r="V51" s="19">
@@ -4940,7 +4940,7 @@
         <v>434</v>
       </c>
       <c r="AB51" s="13">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="AC51" s="13"/>
       <c r="AD51" s="19">
@@ -4950,7 +4950,7 @@
         <v>1167</v>
       </c>
       <c r="AF51" s="13">
-        <v>6130</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4974,7 +4974,7 @@
         <v>99</v>
       </c>
       <c r="H52" s="13">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="19">
@@ -5004,7 +5004,7 @@
         <v>43</v>
       </c>
       <c r="T52" s="13">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U52" s="13"/>
       <c r="V52" s="19">
@@ -5024,7 +5024,7 @@
         <v>459</v>
       </c>
       <c r="AB52" s="13">
-        <v>1895</v>
+        <v>1884</v>
       </c>
       <c r="AC52" s="13"/>
       <c r="AD52" s="19">
@@ -5034,7 +5034,7 @@
         <v>1153</v>
       </c>
       <c r="AF52" s="13">
-        <v>6013</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5058,7 +5058,7 @@
         <v>94</v>
       </c>
       <c r="H53" s="13">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="19">
@@ -5088,7 +5088,7 @@
         <v>35</v>
       </c>
       <c r="T53" s="13">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="19">
@@ -5105,17 +5105,17 @@
         <v>474</v>
       </c>
       <c r="AA53" s="18">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB53" s="13">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="AC53" s="13"/>
       <c r="AD53" s="19">
         <v>1092</v>
       </c>
       <c r="AE53" s="18">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AF53" s="13">
         <v>6103</v>
@@ -5142,7 +5142,7 @@
         <v>102</v>
       </c>
       <c r="H54" s="13">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="19">
@@ -5172,7 +5172,7 @@
         <v>36</v>
       </c>
       <c r="T54" s="13">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U54" s="13"/>
       <c r="V54" s="19">
@@ -5192,7 +5192,7 @@
         <v>404</v>
       </c>
       <c r="AB54" s="13">
-        <v>2065</v>
+        <v>2053</v>
       </c>
       <c r="AC54" s="13"/>
       <c r="AD54" s="19">
@@ -5226,7 +5226,7 @@
         <v>96</v>
       </c>
       <c r="H55" s="13">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="19">
@@ -5256,7 +5256,7 @@
         <v>42</v>
       </c>
       <c r="T55" s="13">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U55" s="13"/>
       <c r="V55" s="19">
@@ -5276,7 +5276,7 @@
         <v>469</v>
       </c>
       <c r="AB55" s="13">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="AC55" s="13"/>
       <c r="AD55" s="19">
@@ -5310,7 +5310,7 @@
         <v>142</v>
       </c>
       <c r="H56" s="13">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="19">
@@ -5340,7 +5340,7 @@
         <v>39</v>
       </c>
       <c r="T56" s="13">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U56" s="13"/>
       <c r="V56" s="19">
@@ -5357,20 +5357,20 @@
         <v>501</v>
       </c>
       <c r="AA56" s="18">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB56" s="13">
-        <v>2080</v>
+        <v>2067</v>
       </c>
       <c r="AC56" s="13"/>
       <c r="AD56" s="19">
         <v>1176</v>
       </c>
       <c r="AE56" s="18">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="AF56" s="13">
-        <v>6236</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5394,7 +5394,7 @@
         <v>140</v>
       </c>
       <c r="H57" s="13">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="19">
@@ -5424,7 +5424,7 @@
         <v>49</v>
       </c>
       <c r="T57" s="13">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U57" s="13"/>
       <c r="V57" s="19">
@@ -5444,7 +5444,7 @@
         <v>480</v>
       </c>
       <c r="AB57" s="13">
-        <v>2125</v>
+        <v>2112</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AD57" s="19">
@@ -5454,7 +5454,7 @@
         <v>1294</v>
       </c>
       <c r="AF57" s="13">
-        <v>6242</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5478,7 +5478,7 @@
         <v>164</v>
       </c>
       <c r="H58" s="13">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="19">
@@ -5508,7 +5508,7 @@
         <v>38</v>
       </c>
       <c r="T58" s="13">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U58" s="13"/>
       <c r="V58" s="19">
@@ -5528,7 +5528,7 @@
         <v>500</v>
       </c>
       <c r="AB58" s="13">
-        <v>2182</v>
+        <v>2169</v>
       </c>
       <c r="AC58" s="13"/>
       <c r="AD58" s="19">
@@ -5538,7 +5538,7 @@
         <v>1380</v>
       </c>
       <c r="AF58" s="13">
-        <v>6238</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5562,7 +5562,7 @@
         <v>142</v>
       </c>
       <c r="H59" s="13">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="19">
@@ -5592,7 +5592,7 @@
         <v>46</v>
       </c>
       <c r="T59" s="13">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="19">
@@ -5612,7 +5612,7 @@
         <v>506</v>
       </c>
       <c r="AB59" s="13">
-        <v>2229</v>
+        <v>2216</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AD59" s="19">
@@ -5622,7 +5622,7 @@
         <v>1303</v>
       </c>
       <c r="AF59" s="13">
-        <v>6291</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5646,7 +5646,7 @@
         <v>139</v>
       </c>
       <c r="H60" s="13">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="19">
@@ -5670,13 +5670,13 @@
       </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S60" s="18">
         <v>38</v>
       </c>
       <c r="T60" s="13">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="19">
@@ -5696,17 +5696,17 @@
         <v>479</v>
       </c>
       <c r="AB60" s="13">
-        <v>2309</v>
+        <v>2296</v>
       </c>
       <c r="AC60" s="13"/>
       <c r="AD60" s="19">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AE60" s="18">
         <v>1335</v>
       </c>
       <c r="AF60" s="13">
-        <v>6413</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5730,7 +5730,7 @@
         <v>130</v>
       </c>
       <c r="H61" s="13">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="19">
@@ -5760,7 +5760,7 @@
         <v>41</v>
       </c>
       <c r="T61" s="13">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="19">
@@ -5777,20 +5777,20 @@
         <v>569</v>
       </c>
       <c r="AA61" s="18">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AB61" s="13">
-        <v>2353</v>
+        <v>2339</v>
       </c>
       <c r="AC61" s="13"/>
       <c r="AD61" s="19">
         <v>1343</v>
       </c>
       <c r="AE61" s="18">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AF61" s="13">
-        <v>6387</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5814,7 +5814,7 @@
         <v>120</v>
       </c>
       <c r="H62" s="13">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="19">
@@ -5844,7 +5844,7 @@
         <v>47</v>
       </c>
       <c r="T62" s="13">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="19">
@@ -5864,7 +5864,7 @@
         <v>500</v>
       </c>
       <c r="AB62" s="13">
-        <v>2443</v>
+        <v>2429</v>
       </c>
       <c r="AC62" s="13"/>
       <c r="AD62" s="19">
@@ -5874,7 +5874,7 @@
         <v>1281</v>
       </c>
       <c r="AF62" s="13">
-        <v>6506</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5898,7 +5898,7 @@
         <v>123</v>
       </c>
       <c r="H63" s="13">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="I63" s="26"/>
       <c r="J63" s="19">
@@ -5928,7 +5928,7 @@
         <v>36</v>
       </c>
       <c r="T63" s="13">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U63" s="13"/>
       <c r="V63" s="19">
@@ -5948,7 +5948,7 @@
         <v>454</v>
       </c>
       <c r="AB63" s="13">
-        <v>2588</v>
+        <v>2574</v>
       </c>
       <c r="AC63" s="13"/>
       <c r="AD63" s="19">
@@ -5958,7 +5958,7 @@
         <v>1263</v>
       </c>
       <c r="AF63" s="13">
-        <v>6739</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5982,7 +5982,7 @@
         <v>87</v>
       </c>
       <c r="H64" s="13">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="I64" s="26"/>
       <c r="J64" s="19">
@@ -6012,7 +6012,7 @@
         <v>44</v>
       </c>
       <c r="T64" s="13">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U64" s="13"/>
       <c r="V64" s="19">
@@ -6032,7 +6032,7 @@
         <v>468</v>
       </c>
       <c r="AB64" s="13">
-        <v>2688</v>
+        <v>2674</v>
       </c>
       <c r="AC64" s="13"/>
       <c r="AD64" s="19">
@@ -6042,7 +6042,7 @@
         <v>1164</v>
       </c>
       <c r="AF64" s="13">
-        <v>6976</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6066,7 +6066,7 @@
         <v>80</v>
       </c>
       <c r="H65" s="13">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="I65" s="26"/>
       <c r="J65" s="19">
@@ -6090,13 +6090,13 @@
       </c>
       <c r="Q65" s="13"/>
       <c r="R65" s="19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S65" s="18">
         <v>39</v>
       </c>
       <c r="T65" s="13">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="U65" s="13"/>
       <c r="V65" s="19">
@@ -6116,17 +6116,17 @@
         <v>428</v>
       </c>
       <c r="AB65" s="13">
-        <v>2798</v>
+        <v>2784</v>
       </c>
       <c r="AC65" s="13"/>
       <c r="AD65" s="19">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AE65" s="18">
         <v>1014</v>
       </c>
       <c r="AF65" s="13">
-        <v>7305</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6150,7 +6150,7 @@
         <v>102</v>
       </c>
       <c r="H66" s="13">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="I66" s="26"/>
       <c r="J66" s="19">
@@ -6180,7 +6180,7 @@
         <v>39</v>
       </c>
       <c r="T66" s="13">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="19">
@@ -6200,7 +6200,7 @@
         <v>489</v>
       </c>
       <c r="AB66" s="13">
-        <v>2895</v>
+        <v>2881</v>
       </c>
       <c r="AC66" s="13"/>
       <c r="AD66" s="19">
@@ -6210,7 +6210,7 @@
         <v>1127</v>
       </c>
       <c r="AF66" s="13">
-        <v>7641</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6234,7 +6234,7 @@
         <v>111</v>
       </c>
       <c r="H67" s="13">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="I67" s="26"/>
       <c r="J67" s="19">
@@ -6264,7 +6264,7 @@
         <v>38</v>
       </c>
       <c r="T67" s="13">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="19">
@@ -6284,7 +6284,7 @@
         <v>466</v>
       </c>
       <c r="AB67" s="13">
-        <v>2979</v>
+        <v>2965</v>
       </c>
       <c r="AC67" s="13"/>
       <c r="AD67" s="19">
@@ -6294,7 +6294,7 @@
         <v>1108</v>
       </c>
       <c r="AF67" s="13">
-        <v>7859</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6318,7 +6318,7 @@
         <v>114</v>
       </c>
       <c r="H68" s="13">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="I68" s="26"/>
       <c r="J68" s="19">
@@ -6348,7 +6348,7 @@
         <v>45</v>
       </c>
       <c r="T68" s="13">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="19">
@@ -6368,7 +6368,7 @@
         <v>511</v>
       </c>
       <c r="AB68" s="13">
-        <v>3047</v>
+        <v>3033</v>
       </c>
       <c r="AC68" s="13"/>
       <c r="AD68" s="19">
@@ -6378,7 +6378,7 @@
         <v>1317</v>
       </c>
       <c r="AF68" s="13">
-        <v>7932</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6402,7 +6402,7 @@
         <v>129</v>
       </c>
       <c r="H69" s="13">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="I69" s="26"/>
       <c r="J69" s="19">
@@ -6432,7 +6432,7 @@
         <v>43</v>
       </c>
       <c r="T69" s="13">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="19">
@@ -6452,7 +6452,7 @@
         <v>465</v>
       </c>
       <c r="AB69" s="13">
-        <v>3158</v>
+        <v>3144</v>
       </c>
       <c r="AC69" s="13"/>
       <c r="AD69" s="19">
@@ -6462,7 +6462,7 @@
         <v>1253</v>
       </c>
       <c r="AF69" s="13">
-        <v>8046</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6486,7 +6486,7 @@
         <v>126</v>
       </c>
       <c r="H70" s="13">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="19">
@@ -6516,7 +6516,7 @@
         <v>32</v>
       </c>
       <c r="T70" s="13">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="U70" s="13"/>
       <c r="V70" s="19">
@@ -6533,20 +6533,20 @@
         <v>561</v>
       </c>
       <c r="AA70" s="18">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB70" s="13">
-        <v>3187</v>
+        <v>3172</v>
       </c>
       <c r="AC70" s="13"/>
       <c r="AD70" s="19">
         <v>1371</v>
       </c>
       <c r="AE70" s="18">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AF70" s="13">
-        <v>8110</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6570,7 +6570,7 @@
         <v>152</v>
       </c>
       <c r="H71" s="13">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="I71" s="26"/>
       <c r="J71" s="19">
@@ -6600,7 +6600,7 @@
         <v>38</v>
       </c>
       <c r="T71" s="13">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="U71" s="13"/>
       <c r="V71" s="19">
@@ -6620,7 +6620,7 @@
         <v>499</v>
       </c>
       <c r="AB71" s="13">
-        <v>3235</v>
+        <v>3220</v>
       </c>
       <c r="AC71" s="13"/>
       <c r="AD71" s="19">
@@ -6630,7 +6630,7 @@
         <v>1286</v>
       </c>
       <c r="AF71" s="13">
-        <v>8151</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6654,7 +6654,7 @@
         <v>114</v>
       </c>
       <c r="H72" s="13">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="I72" s="26"/>
       <c r="J72" s="19">
@@ -6684,7 +6684,7 @@
         <v>44</v>
       </c>
       <c r="T72" s="13">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="U72" s="13"/>
       <c r="V72" s="19">
@@ -6704,7 +6704,7 @@
         <v>515</v>
       </c>
       <c r="AB72" s="13">
-        <v>3267</v>
+        <v>3252</v>
       </c>
       <c r="AC72" s="13"/>
       <c r="AD72" s="19">
@@ -6714,7 +6714,7 @@
         <v>1268</v>
       </c>
       <c r="AF72" s="13">
-        <v>8203</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6738,7 +6738,7 @@
         <v>136</v>
       </c>
       <c r="H73" s="13">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="I73" s="26"/>
       <c r="J73" s="19">
@@ -6768,7 +6768,7 @@
         <v>34</v>
       </c>
       <c r="T73" s="13">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="U73" s="13"/>
       <c r="V73" s="19">
@@ -6788,7 +6788,7 @@
         <v>466</v>
       </c>
       <c r="AB73" s="13">
-        <v>3314</v>
+        <v>3299</v>
       </c>
       <c r="AC73" s="13"/>
       <c r="AD73" s="19">
@@ -6798,7 +6798,7 @@
         <v>1267</v>
       </c>
       <c r="AF73" s="13">
-        <v>8151</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6822,7 +6822,7 @@
         <v>80</v>
       </c>
       <c r="H74" s="13">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="I74" s="26"/>
       <c r="J74" s="19">
@@ -6852,7 +6852,7 @@
         <v>25</v>
       </c>
       <c r="T74" s="13">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="U74" s="13"/>
       <c r="V74" s="19">
@@ -6872,7 +6872,7 @@
         <v>466</v>
       </c>
       <c r="AB74" s="13">
-        <v>3349</v>
+        <v>3334</v>
       </c>
       <c r="AC74" s="13"/>
       <c r="AD74" s="19">
@@ -6882,7 +6882,7 @@
         <v>1081</v>
       </c>
       <c r="AF74" s="13">
-        <v>8255</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6906,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="H75" s="13">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="I75" s="26"/>
       <c r="J75" s="19">
@@ -6936,7 +6936,7 @@
         <v>35</v>
       </c>
       <c r="T75" s="13">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="U75" s="13"/>
       <c r="V75" s="19">
@@ -6956,7 +6956,7 @@
         <v>517</v>
       </c>
       <c r="AB75" s="13">
-        <v>3302</v>
+        <v>3287</v>
       </c>
       <c r="AC75" s="13"/>
       <c r="AD75" s="19">
@@ -6966,7 +6966,7 @@
         <v>1082</v>
       </c>
       <c r="AF75" s="13">
-        <v>8293</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6990,7 +6990,7 @@
         <v>85</v>
       </c>
       <c r="H76" s="13">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="I76" s="26"/>
       <c r="J76" s="19">
@@ -7020,7 +7020,7 @@
         <v>27</v>
       </c>
       <c r="T76" s="13">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="U76" s="13"/>
       <c r="V76" s="19">
@@ -7040,7 +7040,7 @@
         <v>448</v>
       </c>
       <c r="AB76" s="13">
-        <v>3320</v>
+        <v>3305</v>
       </c>
       <c r="AC76" s="13"/>
       <c r="AD76" s="19">
@@ -7050,7 +7050,7 @@
         <v>980</v>
       </c>
       <c r="AF76" s="13">
-        <v>8320</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7074,7 +7074,7 @@
         <v>83</v>
       </c>
       <c r="H77" s="13">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="19">
@@ -7104,7 +7104,7 @@
         <v>30</v>
       </c>
       <c r="T77" s="13">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="U77" s="13"/>
       <c r="V77" s="19">
@@ -7124,7 +7124,7 @@
         <v>411</v>
       </c>
       <c r="AB77" s="13">
-        <v>3359</v>
+        <v>3344</v>
       </c>
       <c r="AC77" s="13"/>
       <c r="AD77" s="19">
@@ -7134,7 +7134,7 @@
         <v>886</v>
       </c>
       <c r="AF77" s="13">
-        <v>8467</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7158,7 +7158,7 @@
         <v>80</v>
       </c>
       <c r="H78" s="13">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="I78" s="26"/>
       <c r="J78" s="19">
@@ -7188,7 +7188,7 @@
         <v>22</v>
       </c>
       <c r="T78" s="13">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="U78" s="13"/>
       <c r="V78" s="19">
@@ -7208,7 +7208,7 @@
         <v>460</v>
       </c>
       <c r="AB78" s="13">
-        <v>3349</v>
+        <v>3334</v>
       </c>
       <c r="AC78" s="13"/>
       <c r="AD78" s="19">
@@ -7218,7 +7218,7 @@
         <v>1040</v>
       </c>
       <c r="AF78" s="13">
-        <v>8515</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7242,7 +7242,7 @@
         <v>104</v>
       </c>
       <c r="H79" s="13">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="I79" s="26"/>
       <c r="J79" s="19">
@@ -7272,7 +7272,7 @@
         <v>48</v>
       </c>
       <c r="T79" s="13">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="U79" s="13"/>
       <c r="V79" s="19">
@@ -7292,7 +7292,7 @@
         <v>499</v>
       </c>
       <c r="AB79" s="13">
-        <v>3315</v>
+        <v>3300</v>
       </c>
       <c r="AC79" s="13"/>
       <c r="AD79" s="19">
@@ -7302,7 +7302,7 @@
         <v>1139</v>
       </c>
       <c r="AF79" s="13">
-        <v>8432</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7320,13 +7320,13 @@
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="19">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G80" s="18">
         <v>98</v>
       </c>
       <c r="H80" s="13">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="19">
@@ -7356,7 +7356,7 @@
         <v>38</v>
       </c>
       <c r="T80" s="13">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="U80" s="13"/>
       <c r="V80" s="19">
@@ -7376,17 +7376,17 @@
         <v>491</v>
       </c>
       <c r="AB80" s="13">
-        <v>3286</v>
+        <v>3271</v>
       </c>
       <c r="AC80" s="13"/>
       <c r="AD80" s="19">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AE80" s="18">
         <v>1090</v>
       </c>
       <c r="AF80" s="13">
-        <v>8439</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7404,13 +7404,13 @@
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="19">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G81" s="18">
         <v>100</v>
       </c>
       <c r="H81" s="13">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="I81" s="26"/>
       <c r="J81" s="19">
@@ -7440,7 +7440,7 @@
         <v>26</v>
       </c>
       <c r="T81" s="13">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="U81" s="13"/>
       <c r="V81" s="19">
@@ -7460,17 +7460,17 @@
         <v>271</v>
       </c>
       <c r="AB81" s="13">
-        <v>3347</v>
+        <v>3332</v>
       </c>
       <c r="AC81" s="13"/>
       <c r="AD81" s="19">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AE81" s="18">
         <v>604</v>
       </c>
       <c r="AF81" s="13">
-        <v>8589</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7488,13 +7488,13 @@
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="19">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G82" s="18">
         <v>77</v>
       </c>
       <c r="H82" s="13">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="19">
@@ -7524,7 +7524,7 @@
         <v>21</v>
       </c>
       <c r="T82" s="13">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="U82" s="13"/>
       <c r="V82" s="19">
@@ -7544,17 +7544,17 @@
         <v>87</v>
       </c>
       <c r="AB82" s="13">
-        <v>3461</v>
+        <v>3446</v>
       </c>
       <c r="AC82" s="13"/>
       <c r="AD82" s="19">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE82" s="18">
         <v>265</v>
       </c>
       <c r="AF82" s="13">
-        <v>8753</v>
+        <v>8744</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7572,13 +7572,13 @@
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="19">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G83" s="18">
         <v>73</v>
       </c>
       <c r="H83" s="13">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="19">
@@ -7608,7 +7608,7 @@
         <v>26</v>
       </c>
       <c r="T83" s="13">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="U83" s="13"/>
       <c r="V83" s="19">
@@ -7628,17 +7628,17 @@
         <v>82</v>
       </c>
       <c r="AB83" s="13">
-        <v>3530</v>
+        <v>3515</v>
       </c>
       <c r="AC83" s="13"/>
       <c r="AD83" s="19">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE83" s="18">
         <v>257</v>
       </c>
       <c r="AF83" s="13">
-        <v>8822</v>
+        <v>8812</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7656,13 +7656,13 @@
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="19">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G84" s="18">
         <v>65</v>
       </c>
       <c r="H84" s="13">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="19">
@@ -7692,7 +7692,7 @@
         <v>23</v>
       </c>
       <c r="T84" s="13">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="U84" s="13"/>
       <c r="V84" s="19">
@@ -7712,17 +7712,17 @@
         <v>135</v>
       </c>
       <c r="AB84" s="13">
-        <v>3537</v>
+        <v>3522</v>
       </c>
       <c r="AC84" s="13"/>
       <c r="AD84" s="19">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE84" s="18">
         <v>314</v>
       </c>
       <c r="AF84" s="13">
-        <v>8807</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7740,13 +7740,13 @@
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G85" s="18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H85" s="13">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="19">
@@ -7776,7 +7776,7 @@
         <v>33</v>
       </c>
       <c r="T85" s="13">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="U85" s="13"/>
       <c r="V85" s="19">
@@ -7796,17 +7796,17 @@
         <v>223</v>
       </c>
       <c r="AB85" s="13">
-        <v>3456</v>
+        <v>3441</v>
       </c>
       <c r="AC85" s="13"/>
       <c r="AD85" s="19">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE85" s="18">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF85" s="13">
-        <v>8672</v>
+        <v>8659</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7824,13 +7824,13 @@
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="19">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G86" s="18">
         <v>68</v>
       </c>
       <c r="H86" s="13">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="I86" s="26"/>
       <c r="J86" s="19">
@@ -7860,7 +7860,7 @@
         <v>28</v>
       </c>
       <c r="T86" s="13">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="U86" s="13"/>
       <c r="V86" s="19">
@@ -7880,17 +7880,17 @@
         <v>271</v>
       </c>
       <c r="AB86" s="13">
-        <v>3331</v>
+        <v>3316</v>
       </c>
       <c r="AC86" s="13"/>
       <c r="AD86" s="19">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE86" s="18">
         <v>543</v>
       </c>
       <c r="AF86" s="13">
-        <v>8437</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7908,13 +7908,13 @@
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G87" s="18">
         <v>67</v>
       </c>
       <c r="H87" s="13">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="I87" s="26"/>
       <c r="J87" s="19">
@@ -7944,7 +7944,7 @@
         <v>48</v>
       </c>
       <c r="T87" s="13">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="U87" s="13"/>
       <c r="V87" s="19">
@@ -7964,17 +7964,17 @@
         <v>309</v>
       </c>
       <c r="AB87" s="13">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="AC87" s="13"/>
       <c r="AD87" s="19">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE87" s="18">
         <v>622</v>
       </c>
       <c r="AF87" s="13">
-        <v>8152</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7992,13 +7992,13 @@
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="19">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G88" s="18">
         <v>51</v>
       </c>
       <c r="H88" s="13">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="19">
@@ -8028,7 +8028,7 @@
         <v>42</v>
       </c>
       <c r="T88" s="13">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="U88" s="13"/>
       <c r="V88" s="19">
@@ -8048,17 +8048,17 @@
         <v>317</v>
       </c>
       <c r="AB88" s="13">
-        <v>3049</v>
+        <v>3034</v>
       </c>
       <c r="AC88" s="13"/>
       <c r="AD88" s="19">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE88" s="18">
         <v>606</v>
       </c>
       <c r="AF88" s="13">
-        <v>7920</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8076,23 +8076,23 @@
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="19">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G89" s="18">
         <v>61</v>
       </c>
       <c r="H89" s="13">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="I89" s="26"/>
       <c r="J89" s="19">
         <v>20</v>
       </c>
       <c r="K89" s="18">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L89" s="13">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M89" s="19"/>
       <c r="N89" s="19">
@@ -8112,7 +8112,7 @@
         <v>24</v>
       </c>
       <c r="T89" s="13">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="U89" s="13"/>
       <c r="V89" s="19">
@@ -8132,17 +8132,17 @@
         <v>301</v>
       </c>
       <c r="AB89" s="13">
-        <v>2952</v>
+        <v>2937</v>
       </c>
       <c r="AC89" s="13"/>
       <c r="AD89" s="19">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE89" s="18">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF89" s="13">
-        <v>7723</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8160,13 +8160,13 @@
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="19">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G90" s="18">
         <v>72</v>
       </c>
       <c r="H90" s="13">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I90" s="26"/>
       <c r="J90" s="19">
@@ -8176,7 +8176,7 @@
         <v>41</v>
       </c>
       <c r="L90" s="13">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M90" s="19"/>
       <c r="N90" s="19">
@@ -8196,7 +8196,7 @@
         <v>47</v>
       </c>
       <c r="T90" s="13">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="U90" s="13"/>
       <c r="V90" s="19">
@@ -8210,13 +8210,13 @@
       </c>
       <c r="Y90" s="13"/>
       <c r="Z90" s="19">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA90" s="18">
         <v>374</v>
       </c>
       <c r="AB90" s="13">
-        <v>2799</v>
+        <v>2785</v>
       </c>
       <c r="AC90" s="13"/>
       <c r="AD90" s="19">
@@ -8226,7 +8226,7 @@
         <v>738</v>
       </c>
       <c r="AF90" s="13">
-        <v>7437</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8244,13 +8244,13 @@
       </c>
       <c r="E91" s="26"/>
       <c r="F91" s="19">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G91" s="18">
         <v>52</v>
       </c>
       <c r="H91" s="13">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I91" s="26"/>
       <c r="J91" s="19">
@@ -8260,7 +8260,7 @@
         <v>24</v>
       </c>
       <c r="L91" s="13">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M91" s="19"/>
       <c r="N91" s="19">
@@ -8274,13 +8274,13 @@
       </c>
       <c r="Q91" s="13"/>
       <c r="R91" s="19">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S91" s="18">
         <v>27</v>
       </c>
       <c r="T91" s="13">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="U91" s="13"/>
       <c r="V91" s="19">
@@ -8294,13 +8294,13 @@
       </c>
       <c r="Y91" s="13"/>
       <c r="Z91" s="19">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA91" s="18">
         <v>268</v>
       </c>
       <c r="AB91" s="13">
-        <v>2774</v>
+        <v>2762</v>
       </c>
       <c r="AC91" s="13"/>
       <c r="AD91" s="19">
@@ -8310,7 +8310,7 @@
         <v>554</v>
       </c>
       <c r="AF91" s="13">
-        <v>7352</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="19">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G92" s="18">
         <v>94</v>
@@ -8344,7 +8344,7 @@
         <v>45</v>
       </c>
       <c r="L92" s="13">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M92" s="19"/>
       <c r="N92" s="19">
@@ -8364,7 +8364,7 @@
         <v>39</v>
       </c>
       <c r="T92" s="13">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="U92" s="13"/>
       <c r="V92" s="19">
@@ -8378,13 +8378,13 @@
       </c>
       <c r="Y92" s="13"/>
       <c r="Z92" s="19">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA92" s="18">
         <v>460</v>
       </c>
       <c r="AB92" s="13">
-        <v>2572</v>
+        <v>2561</v>
       </c>
       <c r="AC92" s="13"/>
       <c r="AD92" s="19">
@@ -8394,7 +8394,7 @@
         <v>870</v>
       </c>
       <c r="AF92" s="13">
-        <v>6989</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8412,23 +8412,23 @@
       </c>
       <c r="E93" s="26"/>
       <c r="F93" s="19">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G93" s="18">
         <v>72</v>
       </c>
       <c r="H93" s="13">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I93" s="26"/>
       <c r="J93" s="19">
         <v>27</v>
       </c>
       <c r="K93" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L93" s="13">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M93" s="19"/>
       <c r="N93" s="19">
@@ -8448,7 +8448,7 @@
         <v>45</v>
       </c>
       <c r="T93" s="13">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="U93" s="13"/>
       <c r="V93" s="19">
@@ -8462,23 +8462,23 @@
       </c>
       <c r="Y93" s="13"/>
       <c r="Z93" s="19">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA93" s="18">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AB93" s="13">
-        <v>2403</v>
+        <v>2392</v>
       </c>
       <c r="AC93" s="13"/>
       <c r="AD93" s="19">
         <v>537</v>
       </c>
       <c r="AE93" s="18">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF93" s="13">
-        <v>6698</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="19">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G94" s="18">
         <v>81</v>
@@ -8512,7 +8512,7 @@
         <v>62</v>
       </c>
       <c r="L94" s="13">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M94" s="19"/>
       <c r="N94" s="19">
@@ -8532,7 +8532,7 @@
         <v>44</v>
       </c>
       <c r="T94" s="13">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="U94" s="13"/>
       <c r="V94" s="19">
@@ -8546,23 +8546,23 @@
       </c>
       <c r="Y94" s="13"/>
       <c r="Z94" s="19">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AA94" s="18">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AB94" s="13">
-        <v>2271</v>
+        <v>2260</v>
       </c>
       <c r="AC94" s="13"/>
       <c r="AD94" s="19">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AE94" s="18">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="AF94" s="13">
-        <v>6414</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8596,7 +8596,7 @@
         <v>33</v>
       </c>
       <c r="L95" s="13">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M95" s="19"/>
       <c r="N95" s="19">
@@ -8616,7 +8616,7 @@
         <v>44</v>
       </c>
       <c r="T95" s="13">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="U95" s="13"/>
       <c r="V95" s="19">
@@ -8630,23 +8630,23 @@
       </c>
       <c r="Y95" s="13"/>
       <c r="Z95" s="19">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA95" s="18">
         <v>389</v>
       </c>
       <c r="AB95" s="13">
-        <v>2167</v>
+        <v>2158</v>
       </c>
       <c r="AC95" s="13"/>
       <c r="AD95" s="19">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AE95" s="18">
         <v>750</v>
       </c>
       <c r="AF95" s="13">
-        <v>6238</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8664,23 +8664,23 @@
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="19">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G96" s="18">
         <v>70</v>
       </c>
       <c r="H96" s="13">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="19">
         <v>32</v>
       </c>
       <c r="K96" s="18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L96" s="13">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M96" s="19"/>
       <c r="N96" s="19">
@@ -8700,7 +8700,7 @@
         <v>34</v>
       </c>
       <c r="T96" s="13">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="U96" s="13"/>
       <c r="V96" s="19">
@@ -8714,23 +8714,23 @@
       </c>
       <c r="Y96" s="13"/>
       <c r="Z96" s="19">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AA96" s="18">
         <v>419</v>
       </c>
       <c r="AB96" s="13">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="AC96" s="13"/>
       <c r="AD96" s="19">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="AE96" s="18">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AF96" s="13">
-        <v>6032</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8754,7 +8754,7 @@
         <v>59</v>
       </c>
       <c r="H97" s="13">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="19">
@@ -8764,7 +8764,7 @@
         <v>69</v>
       </c>
       <c r="L97" s="13">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M97" s="19"/>
       <c r="N97" s="19">
@@ -8784,7 +8784,7 @@
         <v>57</v>
       </c>
       <c r="T97" s="13">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="U97" s="13"/>
       <c r="V97" s="19">
@@ -8798,23 +8798,23 @@
       </c>
       <c r="Y97" s="13"/>
       <c r="Z97" s="19">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AA97" s="18">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AB97" s="13">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="AC97" s="13"/>
       <c r="AD97" s="19">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AE97" s="18">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="AF97" s="13">
-        <v>5873</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8838,17 +8838,17 @@
         <v>86</v>
       </c>
       <c r="H98" s="13">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="19">
         <v>42</v>
       </c>
       <c r="K98" s="18">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L98" s="13">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M98" s="19"/>
       <c r="N98" s="19">
@@ -8868,7 +8868,7 @@
         <v>43</v>
       </c>
       <c r="T98" s="13">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="U98" s="13"/>
       <c r="V98" s="19">
@@ -8882,23 +8882,23 @@
       </c>
       <c r="Y98" s="13"/>
       <c r="Z98" s="19">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AA98" s="18">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AB98" s="13">
-        <v>1836</v>
+        <v>1826</v>
       </c>
       <c r="AC98" s="13"/>
       <c r="AD98" s="19">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AE98" s="18">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="AF98" s="13">
-        <v>5717</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8922,7 +8922,7 @@
         <v>99</v>
       </c>
       <c r="H99" s="13">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="19">
@@ -8932,7 +8932,7 @@
         <v>78</v>
       </c>
       <c r="L99" s="13">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M99" s="19"/>
       <c r="N99" s="19">
@@ -8952,7 +8952,7 @@
         <v>38</v>
       </c>
       <c r="T99" s="13">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="U99" s="13"/>
       <c r="V99" s="19">
@@ -8966,23 +8966,23 @@
       </c>
       <c r="Y99" s="13"/>
       <c r="Z99" s="19">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AA99" s="18">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AB99" s="13">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="AC99" s="13"/>
       <c r="AD99" s="19">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="AE99" s="18">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="AF99" s="13">
-        <v>5436</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9000,13 +9000,13 @@
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="19">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G100" s="18">
         <v>58</v>
       </c>
       <c r="H100" s="13">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="19">
@@ -9016,7 +9016,7 @@
         <v>62</v>
       </c>
       <c r="L100" s="13">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M100" s="19"/>
       <c r="N100" s="19">
@@ -9036,7 +9036,7 @@
         <v>39</v>
       </c>
       <c r="T100" s="13">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="U100" s="13"/>
       <c r="V100" s="19">
@@ -9050,23 +9050,23 @@
       </c>
       <c r="Y100" s="13"/>
       <c r="Z100" s="19">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AA100" s="18">
         <v>417</v>
       </c>
       <c r="AB100" s="13">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="AC100" s="13"/>
       <c r="AD100" s="19">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="AE100" s="18">
         <v>817</v>
       </c>
       <c r="AF100" s="13">
-        <v>5328</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9084,13 +9084,13 @@
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G101" s="18">
         <v>58</v>
       </c>
       <c r="H101" s="13">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="I101" s="26"/>
       <c r="J101" s="19">
@@ -9100,7 +9100,7 @@
         <v>50</v>
       </c>
       <c r="L101" s="13">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M101" s="19"/>
       <c r="N101" s="19">
@@ -9120,7 +9120,7 @@
         <v>45</v>
       </c>
       <c r="T101" s="13">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="U101" s="13"/>
       <c r="V101" s="19">
@@ -9134,23 +9134,23 @@
       </c>
       <c r="Y101" s="13"/>
       <c r="Z101" s="19">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AA101" s="18">
         <v>445</v>
       </c>
       <c r="AB101" s="13">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="AC101" s="13"/>
       <c r="AD101" s="19">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AE101" s="18">
         <v>824</v>
       </c>
       <c r="AF101" s="13">
-        <v>5250</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9168,13 +9168,13 @@
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="19">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G102" s="18">
         <v>59</v>
       </c>
       <c r="H102" s="13">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="I102" s="26"/>
       <c r="J102" s="19">
@@ -9184,7 +9184,7 @@
         <v>34</v>
       </c>
       <c r="L102" s="13">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="19">
@@ -9204,7 +9204,7 @@
         <v>34</v>
       </c>
       <c r="T102" s="13">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="U102" s="13"/>
       <c r="V102" s="19">
@@ -9218,23 +9218,23 @@
       </c>
       <c r="Y102" s="13"/>
       <c r="Z102" s="19">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AA102" s="18">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AB102" s="13">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="AC102" s="13"/>
       <c r="AD102" s="19">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="AE102" s="18">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="AF102" s="13">
-        <v>5265</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9258,7 +9258,7 @@
         <v>59</v>
       </c>
       <c r="H103" s="13">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="I103" s="26"/>
       <c r="J103" s="19">
@@ -9268,7 +9268,7 @@
         <v>44</v>
       </c>
       <c r="L103" s="13">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="19">
@@ -9288,7 +9288,7 @@
         <v>32</v>
       </c>
       <c r="T103" s="13">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="U103" s="13"/>
       <c r="V103" s="19">
@@ -9302,23 +9302,23 @@
       </c>
       <c r="Y103" s="13"/>
       <c r="Z103" s="19">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA103" s="18">
         <v>413</v>
       </c>
       <c r="AB103" s="13">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="AC103" s="13"/>
       <c r="AD103" s="19">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AE103" s="18">
         <v>787</v>
       </c>
       <c r="AF103" s="13">
-        <v>5307</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9342,7 +9342,7 @@
         <v>84</v>
       </c>
       <c r="H104" s="13">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="I104" s="26"/>
       <c r="J104" s="19">
@@ -9352,7 +9352,7 @@
         <v>68</v>
       </c>
       <c r="L104" s="13">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M104" s="19"/>
       <c r="N104" s="19">
@@ -9372,7 +9372,7 @@
         <v>53</v>
       </c>
       <c r="T104" s="13">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="U104" s="13"/>
       <c r="V104" s="19">
@@ -9386,23 +9386,23 @@
       </c>
       <c r="Y104" s="13"/>
       <c r="Z104" s="19">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA104" s="18">
         <v>452</v>
       </c>
       <c r="AB104" s="13">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="AC104" s="13"/>
       <c r="AD104" s="19">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AE104" s="18">
         <v>908</v>
       </c>
       <c r="AF104" s="13">
-        <v>5263</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9412,7 +9412,7 @@
       <c r="B105" s="19">
         <v>55</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C105" s="18">
         <v>66</v>
       </c>
       <c r="D105" s="13">
@@ -9422,27 +9422,27 @@
       <c r="F105" s="19">
         <v>92</v>
       </c>
-      <c r="G105" s="19">
+      <c r="G105" s="18">
         <v>62</v>
       </c>
       <c r="H105" s="13">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="I105" s="26"/>
       <c r="J105" s="19">
         <v>58</v>
       </c>
-      <c r="K105" s="19">
+      <c r="K105" s="18">
         <v>39</v>
       </c>
       <c r="L105" s="13">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M105" s="19"/>
       <c r="N105" s="19">
         <v>96</v>
       </c>
-      <c r="O105" s="19">
+      <c r="O105" s="18">
         <v>145</v>
       </c>
       <c r="P105" s="13">
@@ -9452,17 +9452,17 @@
       <c r="R105" s="19">
         <v>70</v>
       </c>
-      <c r="S105" s="19">
+      <c r="S105" s="18">
         <v>36</v>
       </c>
       <c r="T105" s="13">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="U105" s="13"/>
       <c r="V105" s="19">
         <v>96</v>
       </c>
-      <c r="W105" s="19">
+      <c r="W105" s="18">
         <v>67</v>
       </c>
       <c r="X105" s="13">
@@ -9470,23 +9470,23 @@
       </c>
       <c r="Y105" s="13"/>
       <c r="Z105" s="19">
-        <v>431</v>
-      </c>
-      <c r="AA105" s="19">
-        <v>458</v>
+        <v>433</v>
+      </c>
+      <c r="AA105" s="18">
+        <v>462</v>
       </c>
       <c r="AB105" s="13">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="AC105" s="13"/>
       <c r="AD105" s="19">
-        <v>898</v>
-      </c>
-      <c r="AE105" s="19">
-        <v>873</v>
+        <v>900</v>
+      </c>
+      <c r="AE105" s="18">
+        <v>877</v>
       </c>
       <c r="AF105" s="13">
-        <v>5288</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9496,7 +9496,7 @@
       <c r="B106" s="19">
         <v>59</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C106" s="18">
         <v>64</v>
       </c>
       <c r="D106" s="13">
@@ -9506,27 +9506,27 @@
       <c r="F106" s="19">
         <v>97</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="18">
         <v>91</v>
       </c>
       <c r="H106" s="13">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="I106" s="26"/>
       <c r="J106" s="19">
         <v>75</v>
       </c>
-      <c r="K106" s="19">
+      <c r="K106" s="18">
         <v>61</v>
       </c>
       <c r="L106" s="13">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M106" s="19"/>
       <c r="N106" s="19">
         <v>102</v>
       </c>
-      <c r="O106" s="19">
+      <c r="O106" s="18">
         <v>124</v>
       </c>
       <c r="P106" s="13">
@@ -9534,19 +9534,19 @@
       </c>
       <c r="Q106" s="13"/>
       <c r="R106" s="19">
-        <v>73</v>
-      </c>
-      <c r="S106" s="19">
+        <v>72</v>
+      </c>
+      <c r="S106" s="18">
         <v>48</v>
       </c>
       <c r="T106" s="13">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="U106" s="13"/>
       <c r="V106" s="19">
         <v>99</v>
       </c>
-      <c r="W106" s="19">
+      <c r="W106" s="18">
         <v>85</v>
       </c>
       <c r="X106" s="13">
@@ -9554,23 +9554,23 @@
       </c>
       <c r="Y106" s="13"/>
       <c r="Z106" s="19">
-        <v>443</v>
-      </c>
-      <c r="AA106" s="19">
-        <v>458</v>
+        <v>445</v>
+      </c>
+      <c r="AA106" s="18">
+        <v>469</v>
       </c>
       <c r="AB106" s="13">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="AC106" s="13"/>
       <c r="AD106" s="19">
-        <v>948</v>
-      </c>
-      <c r="AE106" s="19">
-        <v>931</v>
+        <v>949</v>
+      </c>
+      <c r="AE106" s="18">
+        <v>942</v>
       </c>
       <c r="AF106" s="13">
-        <v>5305</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9581,80 +9581,80 @@
         <v>61</v>
       </c>
       <c r="C107" s="19">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D107" s="13">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="19">
         <v>97</v>
       </c>
       <c r="G107" s="19">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H107" s="13">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="I107" s="26"/>
       <c r="J107" s="19">
         <v>75</v>
       </c>
       <c r="K107" s="19">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L107" s="13">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="M107" s="19"/>
       <c r="N107" s="19">
         <v>107</v>
       </c>
       <c r="O107" s="19">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P107" s="13">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Q107" s="13"/>
       <c r="R107" s="19">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S107" s="19">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T107" s="13">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U107" s="13"/>
       <c r="V107" s="19">
         <v>109</v>
       </c>
       <c r="W107" s="19">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X107" s="13">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y107" s="13"/>
       <c r="Z107" s="19">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA107" s="19">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AB107" s="13">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="AC107" s="13"/>
       <c r="AD107" s="19">
         <v>980</v>
       </c>
       <c r="AE107" s="19">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="AF107" s="13">
-        <v>5321</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9665,30 +9665,30 @@
         <v>63</v>
       </c>
       <c r="C108" s="19">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D108" s="13">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="19">
         <v>94</v>
       </c>
       <c r="G108" s="19">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H108" s="13">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="I108" s="26"/>
       <c r="J108" s="19">
         <v>75</v>
       </c>
       <c r="K108" s="19">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L108" s="13">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="M108" s="19"/>
       <c r="N108" s="19">
@@ -9698,47 +9698,47 @@
         <v>112</v>
       </c>
       <c r="P108" s="13">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Q108" s="13"/>
       <c r="R108" s="19">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S108" s="19">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="T108" s="13">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="U108" s="13"/>
       <c r="V108" s="19">
         <v>112</v>
       </c>
       <c r="W108" s="19">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X108" s="13">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y108" s="13"/>
       <c r="Z108" s="19">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AA108" s="19">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB108" s="13">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="AC108" s="13"/>
       <c r="AD108" s="19">
         <v>991</v>
       </c>
       <c r="AE108" s="19">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="AF108" s="13">
-        <v>5287</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9752,17 +9752,17 @@
         <v>75</v>
       </c>
       <c r="D109" s="13">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="19">
         <v>91</v>
       </c>
       <c r="G109" s="19">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H109" s="13">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="I109" s="26"/>
       <c r="J109" s="19">
@@ -9772,7 +9772,7 @@
         <v>87</v>
       </c>
       <c r="L109" s="13">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="M109" s="19"/>
       <c r="N109" s="19">
@@ -9782,47 +9782,47 @@
         <v>152</v>
       </c>
       <c r="P109" s="13">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q109" s="13"/>
       <c r="R109" s="19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S109" s="19">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T109" s="13">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="U109" s="13"/>
       <c r="V109" s="19">
         <v>123</v>
       </c>
       <c r="W109" s="19">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="X109" s="13">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="Y109" s="13"/>
       <c r="Z109" s="19">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA109" s="19">
         <v>502</v>
       </c>
       <c r="AB109" s="13">
-        <v>1218</v>
+        <v>1199</v>
       </c>
       <c r="AC109" s="13"/>
       <c r="AD109" s="19">
         <v>1005</v>
       </c>
       <c r="AE109" s="19">
-        <v>1064</v>
+        <v>1040</v>
       </c>
       <c r="AF109" s="13">
-        <v>5228</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9833,10 +9833,10 @@
         <v>65</v>
       </c>
       <c r="C110" s="19">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D110" s="13">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="19">
@@ -9846,7 +9846,7 @@
         <v>113</v>
       </c>
       <c r="H110" s="13">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="I110" s="26"/>
       <c r="J110" s="19">
@@ -9856,7 +9856,7 @@
         <v>85</v>
       </c>
       <c r="L110" s="13">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="M110" s="19"/>
       <c r="N110" s="19">
@@ -9866,7 +9866,7 @@
         <v>129</v>
       </c>
       <c r="P110" s="13">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Q110" s="13"/>
       <c r="R110" s="19">
@@ -9876,7 +9876,7 @@
         <v>69</v>
       </c>
       <c r="T110" s="13">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="U110" s="13"/>
       <c r="V110" s="19">
@@ -9886,27 +9886,27 @@
         <v>103</v>
       </c>
       <c r="X110" s="13">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="Y110" s="13"/>
       <c r="Z110" s="19">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA110" s="19">
         <v>490</v>
       </c>
       <c r="AB110" s="13">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="AC110" s="13"/>
       <c r="AD110" s="19">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AE110" s="19">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="AF110" s="13">
-        <v>5156</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9920,7 +9920,7 @@
         <v>81</v>
       </c>
       <c r="D111" s="13">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="19">
@@ -9930,17 +9930,17 @@
         <v>108</v>
       </c>
       <c r="H111" s="13">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="I111" s="26"/>
       <c r="J111" s="19">
         <v>77</v>
       </c>
       <c r="K111" s="19">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L111" s="13">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="19">
@@ -9950,47 +9950,47 @@
         <v>128</v>
       </c>
       <c r="P111" s="13">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q111" s="13"/>
       <c r="R111" s="19">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S111" s="19">
         <v>65</v>
       </c>
       <c r="T111" s="13">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="U111" s="13"/>
       <c r="V111" s="19">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W111" s="19">
         <v>133</v>
       </c>
       <c r="X111" s="13">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="Y111" s="13"/>
       <c r="Z111" s="19">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA111" s="19">
         <v>520</v>
       </c>
       <c r="AB111" s="13">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="AC111" s="13"/>
       <c r="AD111" s="19">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AE111" s="19">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="AF111" s="13">
-        <v>5057</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10004,7 +10004,7 @@
         <v>60</v>
       </c>
       <c r="D112" s="13">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="19">
@@ -10014,7 +10014,7 @@
         <v>116</v>
       </c>
       <c r="H112" s="13">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="I112" s="26"/>
       <c r="J112" s="19">
@@ -10024,7 +10024,7 @@
         <v>71</v>
       </c>
       <c r="L112" s="13">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19">
@@ -10034,47 +10034,47 @@
         <v>139</v>
       </c>
       <c r="P112" s="13">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q112" s="13"/>
       <c r="R112" s="19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S112" s="19">
         <v>65</v>
       </c>
       <c r="T112" s="13">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="U112" s="13"/>
       <c r="V112" s="19">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W112" s="19">
         <v>112</v>
       </c>
       <c r="X112" s="13">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="Y112" s="13"/>
       <c r="Z112" s="19">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AA112" s="19">
         <v>490</v>
       </c>
       <c r="AB112" s="13">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="AC112" s="13"/>
       <c r="AD112" s="19">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AE112" s="19">
         <v>1053</v>
       </c>
       <c r="AF112" s="13">
-        <v>5048</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10088,17 +10088,17 @@
         <v>79</v>
       </c>
       <c r="D113" s="13">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" s="19">
         <v>100</v>
       </c>
       <c r="G113" s="19">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H113" s="13">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="I113" s="26"/>
       <c r="J113" s="19">
@@ -10108,7 +10108,7 @@
         <v>65</v>
       </c>
       <c r="L113" s="13">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="M113" s="19"/>
       <c r="N113" s="19">
@@ -10118,47 +10118,47 @@
         <v>120</v>
       </c>
       <c r="P113" s="13">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Q113" s="13"/>
       <c r="R113" s="19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S113" s="19">
         <v>63</v>
       </c>
       <c r="T113" s="13">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="U113" s="13"/>
       <c r="V113" s="19">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W113" s="19">
         <v>110</v>
       </c>
       <c r="X113" s="13">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="Y113" s="13"/>
       <c r="Z113" s="19">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA113" s="19">
         <v>490</v>
       </c>
       <c r="AB113" s="13">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="AC113" s="13"/>
       <c r="AD113" s="19">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AE113" s="19">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AF113" s="13">
-        <v>5077</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10172,17 +10172,17 @@
         <v>85</v>
       </c>
       <c r="D114" s="13">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="19">
         <v>101</v>
       </c>
       <c r="G114" s="19">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H114" s="13">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="I114" s="26"/>
       <c r="J114" s="19">
@@ -10192,7 +10192,7 @@
         <v>91</v>
       </c>
       <c r="L114" s="13">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="M114" s="19"/>
       <c r="N114" s="19">
@@ -10202,17 +10202,17 @@
         <v>140</v>
       </c>
       <c r="P114" s="13">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q114" s="13"/>
       <c r="R114" s="19">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S114" s="19">
         <v>64</v>
       </c>
       <c r="T114" s="13">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="U114" s="13"/>
       <c r="V114" s="19">
@@ -10222,27 +10222,27 @@
         <v>110</v>
       </c>
       <c r="X114" s="13">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="Y114" s="13"/>
       <c r="Z114" s="19">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA114" s="19">
         <v>510</v>
       </c>
       <c r="AB114" s="13">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="AC114" s="13"/>
       <c r="AD114" s="19">
         <v>1043</v>
       </c>
       <c r="AE114" s="19">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="AF114" s="13">
-        <v>5005</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10256,17 +10256,17 @@
         <v>71</v>
       </c>
       <c r="D115" s="13">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="19">
         <v>99</v>
       </c>
       <c r="G115" s="19">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H115" s="13">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="I115" s="26"/>
       <c r="J115" s="19">
@@ -10276,57 +10276,57 @@
         <v>93</v>
       </c>
       <c r="L115" s="13">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M115" s="19"/>
       <c r="N115" s="19">
         <v>115</v>
       </c>
       <c r="O115" s="19">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P115" s="13">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q115" s="13"/>
       <c r="R115" s="19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S115" s="19">
         <v>64</v>
       </c>
       <c r="T115" s="13">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="U115" s="13"/>
       <c r="V115" s="19">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W115" s="19">
         <v>108</v>
       </c>
       <c r="X115" s="13">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="Y115" s="13"/>
       <c r="Z115" s="19">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA115" s="19">
         <v>507</v>
       </c>
       <c r="AB115" s="13">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="AC115" s="13"/>
       <c r="AD115" s="19">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AE115" s="19">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="AF115" s="13">
-        <v>4958</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10340,17 +10340,17 @@
         <v>71</v>
       </c>
       <c r="D116" s="13">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="19">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G116" s="19">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H116" s="13">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="I116" s="26"/>
       <c r="J116" s="19">
@@ -10360,7 +10360,7 @@
         <v>93</v>
       </c>
       <c r="L116" s="13">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="M116" s="19"/>
       <c r="N116" s="19">
@@ -10370,50 +10370,50 @@
         <v>123</v>
       </c>
       <c r="P116" s="13">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q116" s="13"/>
       <c r="R116" s="19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S116" s="19">
         <v>63</v>
       </c>
       <c r="T116" s="13">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="U116" s="13"/>
       <c r="V116" s="19">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W116" s="19">
         <v>112</v>
       </c>
       <c r="X116" s="13">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="Y116" s="13"/>
       <c r="Z116" s="19">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AA116" s="19">
         <v>505</v>
       </c>
       <c r="AB116" s="13">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="AC116" s="13"/>
       <c r="AD116" s="19">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AE116" s="19">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="AF116" s="13">
-        <v>4905</v>
-      </c>
-    </row>
-    <row r="117" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8">
         <v>45017</v>
       </c>
@@ -10424,17 +10424,17 @@
         <v>65</v>
       </c>
       <c r="D117" s="13">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="19">
         <v>102</v>
       </c>
       <c r="G117" s="19">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H117" s="13">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="I117" s="26"/>
       <c r="J117" s="19">
@@ -10444,7 +10444,7 @@
         <v>91</v>
       </c>
       <c r="L117" s="13">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="M117" s="19"/>
       <c r="N117" s="19">
@@ -10454,82 +10454,166 @@
         <v>118</v>
       </c>
       <c r="P117" s="13">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q117" s="13"/>
       <c r="R117" s="19">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S117" s="19">
         <v>62</v>
       </c>
       <c r="T117" s="13">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="U117" s="13"/>
       <c r="V117" s="19">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W117" s="19">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="X117" s="13">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Y117" s="13"/>
       <c r="Z117" s="19">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA117" s="19">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AB117" s="13">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AC117" s="13"/>
       <c r="AD117" s="19">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AE117" s="19">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="AF117" s="13">
-        <v>4863</v>
-      </c>
-    </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5"/>
-      <c r="V118" s="5"/>
-      <c r="W118" s="5"/>
-      <c r="X118" s="5"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="5"/>
-      <c r="AC118" s="5"/>
-      <c r="AD118" s="5"/>
-      <c r="AE118" s="5"/>
-      <c r="AF118" s="5"/>
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B118" s="19">
+        <v>58</v>
+      </c>
+      <c r="C118" s="19">
+        <v>58</v>
+      </c>
+      <c r="D118" s="13">
+        <v>744</v>
+      </c>
+      <c r="E118" s="26"/>
+      <c r="F118" s="19">
+        <v>97</v>
+      </c>
+      <c r="G118" s="19">
+        <v>102</v>
+      </c>
+      <c r="H118" s="13">
+        <v>710</v>
+      </c>
+      <c r="I118" s="26"/>
+      <c r="J118" s="19">
+        <v>74</v>
+      </c>
+      <c r="K118" s="19">
+        <v>84</v>
+      </c>
+      <c r="L118" s="13">
+        <v>539</v>
+      </c>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19">
+        <v>99</v>
+      </c>
+      <c r="O118" s="19">
+        <v>107</v>
+      </c>
+      <c r="P118" s="13">
+        <v>483</v>
+      </c>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="19">
+        <v>66</v>
+      </c>
+      <c r="S118" s="19">
+        <v>50</v>
+      </c>
+      <c r="T118" s="13">
+        <v>761</v>
+      </c>
+      <c r="U118" s="13"/>
+      <c r="V118" s="19">
+        <v>111</v>
+      </c>
+      <c r="W118" s="19">
+        <v>105</v>
+      </c>
+      <c r="X118" s="13">
+        <v>717</v>
+      </c>
+      <c r="Y118" s="13"/>
+      <c r="Z118" s="19">
+        <v>466</v>
+      </c>
+      <c r="AA118" s="19">
+        <v>495</v>
+      </c>
+      <c r="AB118" s="13">
+        <v>880</v>
+      </c>
+      <c r="AC118" s="13"/>
+      <c r="AD118" s="19">
+        <v>971</v>
+      </c>
+      <c r="AE118" s="19">
+        <v>1001</v>
+      </c>
+      <c r="AF118" s="13">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10552,7 +10636,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10563,10 +10647,10 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="21">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="C2" s="21">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -10577,13 +10661,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="20">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C3" s="20">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D3" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10591,10 +10675,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="20">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C4" s="20">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D4" s="22">
         <v>-5</v>
@@ -10605,13 +10689,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="20">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="C5" s="20">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="D5" s="22">
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10619,10 +10703,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="20">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C6" s="20">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D6" s="22">
         <v>-8</v>
@@ -10633,13 +10717,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="20">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="C7" s="20">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D7" s="22">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10647,13 +10731,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="20">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C8" s="20">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D8" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -10661,13 +10745,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="24">
-        <v>951</v>
+        <v>909</v>
       </c>
       <c r="C9" s="24">
-        <v>915</v>
+        <v>880</v>
       </c>
       <c r="D9" s="25">
-        <v>-36</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -10675,13 +10759,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="20">
-        <v>4905</v>
+        <v>4864</v>
       </c>
       <c r="C10" s="20">
-        <v>4863</v>
+        <v>4834</v>
       </c>
       <c r="D10" s="22">
-        <v>-42</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>

--- a/src/js/data/excels/duc_data.xlsx
+++ b/src/js/data/excels/duc_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs-f3\Public\OEA_OES_collaboration\DPI\DUCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6812590-84EF-46CC-B1DF-7E4DDC92FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BDF5C-3130-435E-A1EA-2FF2F67BE335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28330" yWindow="3080" windowWidth="28930" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25250" yWindow="4910" windowWidth="22370" windowHeight="11740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="webSummary" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$AF$120</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$AF$121</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -763,13 +763,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF123"/>
+  <dimension ref="A1:AF124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="O93" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="F114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF119" sqref="AF119"/>
+      <selection pane="bottomRight" activeCell="AF120" sqref="AF120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1025,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="16">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="19" t="s">
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="P5" s="16">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="19" t="s">
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="AF5" s="16">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1103,7 +1103,7 @@
         <v>41640</v>
       </c>
       <c r="B6" s="22">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C6" s="21">
         <v>215</v>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="22">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O6" s="21">
         <v>334</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="AC6" s="16"/>
       <c r="AD6" s="22">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AE6" s="21">
         <v>1568</v>
@@ -2067,13 +2067,13 @@
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S17" s="21">
         <v>38</v>
       </c>
       <c r="T17" s="16">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="22">
@@ -2097,13 +2097,13 @@
       </c>
       <c r="AC17" s="16"/>
       <c r="AD17" s="22">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="AE17" s="21">
         <v>1788</v>
       </c>
       <c r="AF17" s="16">
-        <v>5158</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2157,7 +2157,7 @@
         <v>48</v>
       </c>
       <c r="T18" s="16">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="22">
@@ -2187,7 +2187,7 @@
         <v>1601</v>
       </c>
       <c r="AF18" s="16">
-        <v>5372</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2225,13 +2225,13 @@
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O19" s="21">
         <v>261</v>
       </c>
       <c r="P19" s="16">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="22">
@@ -2241,7 +2241,7 @@
         <v>39</v>
       </c>
       <c r="T19" s="16">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="22">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="AC19" s="16"/>
       <c r="AD19" s="22">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="AE19" s="21">
         <v>1229</v>
@@ -2289,13 +2289,13 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="22">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="21">
         <v>146</v>
       </c>
       <c r="H20" s="16">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="22">
@@ -2309,13 +2309,13 @@
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O20" s="21">
         <v>284</v>
       </c>
       <c r="P20" s="16">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="22">
@@ -2325,7 +2325,7 @@
         <v>35</v>
       </c>
       <c r="T20" s="16">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="22">
@@ -2379,7 +2379,7 @@
         <v>167</v>
       </c>
       <c r="H21" s="16">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="22">
@@ -2399,7 +2399,7 @@
         <v>236</v>
       </c>
       <c r="P21" s="16">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="22">
@@ -2409,7 +2409,7 @@
         <v>34</v>
       </c>
       <c r="T21" s="16">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="22">
@@ -2463,7 +2463,7 @@
         <v>166</v>
       </c>
       <c r="H22" s="16">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="22">
@@ -2483,7 +2483,7 @@
         <v>174</v>
       </c>
       <c r="P22" s="16">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="22">
@@ -2493,7 +2493,7 @@
         <v>28</v>
       </c>
       <c r="T22" s="16">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="22">
@@ -2547,7 +2547,7 @@
         <v>138</v>
       </c>
       <c r="H23" s="16">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="22">
@@ -2567,7 +2567,7 @@
         <v>183</v>
       </c>
       <c r="P23" s="16">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="22">
@@ -2577,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="T23" s="16">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="22">
@@ -2631,7 +2631,7 @@
         <v>136</v>
       </c>
       <c r="H24" s="16">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="22">
@@ -2651,7 +2651,7 @@
         <v>213</v>
       </c>
       <c r="P24" s="16">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="22">
@@ -2661,7 +2661,7 @@
         <v>20</v>
       </c>
       <c r="T24" s="16">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="22">
@@ -2715,7 +2715,7 @@
         <v>135</v>
       </c>
       <c r="H25" s="16">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="22">
@@ -2729,13 +2729,13 @@
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O25" s="21">
         <v>246</v>
       </c>
       <c r="P25" s="16">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="22">
@@ -2745,7 +2745,7 @@
         <v>23</v>
       </c>
       <c r="T25" s="16">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="22">
@@ -2769,13 +2769,13 @@
       </c>
       <c r="AC25" s="16"/>
       <c r="AD25" s="22">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AE25" s="21">
         <v>1069</v>
       </c>
       <c r="AF25" s="16">
-        <v>6058</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2799,7 +2799,7 @@
         <v>141</v>
       </c>
       <c r="H26" s="16">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="22">
@@ -2819,7 +2819,7 @@
         <v>228</v>
       </c>
       <c r="P26" s="16">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="22">
@@ -2829,7 +2829,7 @@
         <v>22</v>
       </c>
       <c r="T26" s="16">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U26" s="16"/>
       <c r="V26" s="22">
@@ -2859,7 +2859,7 @@
         <v>989</v>
       </c>
       <c r="AF26" s="16">
-        <v>6072</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2883,7 +2883,7 @@
         <v>120</v>
       </c>
       <c r="H27" s="16">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="22">
@@ -2903,7 +2903,7 @@
         <v>162</v>
       </c>
       <c r="P27" s="16">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="22">
@@ -2913,7 +2913,7 @@
         <v>31</v>
       </c>
       <c r="T27" s="16">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U27" s="16"/>
       <c r="V27" s="22">
@@ -2943,7 +2943,7 @@
         <v>933</v>
       </c>
       <c r="AF27" s="16">
-        <v>6132</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -2967,7 +2967,7 @@
         <v>99</v>
       </c>
       <c r="H28" s="16">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="22">
@@ -2987,7 +2987,7 @@
         <v>153</v>
       </c>
       <c r="P28" s="16">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="22">
@@ -2997,7 +2997,7 @@
         <v>24</v>
       </c>
       <c r="T28" s="16">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U28" s="16"/>
       <c r="V28" s="22">
@@ -3027,7 +3027,7 @@
         <v>803</v>
       </c>
       <c r="AF28" s="16">
-        <v>6219</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3051,7 +3051,7 @@
         <v>105</v>
       </c>
       <c r="H29" s="16">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="22">
@@ -3071,7 +3071,7 @@
         <v>156</v>
       </c>
       <c r="P29" s="16">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="22">
@@ -3081,7 +3081,7 @@
         <v>27</v>
       </c>
       <c r="T29" s="16">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U29" s="16"/>
       <c r="V29" s="22">
@@ -3111,7 +3111,7 @@
         <v>756</v>
       </c>
       <c r="AF29" s="16">
-        <v>6291</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3135,7 +3135,7 @@
         <v>79</v>
       </c>
       <c r="H30" s="16">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="22">
@@ -3149,13 +3149,13 @@
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O30" s="21">
         <v>143</v>
       </c>
       <c r="P30" s="16">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="Q30" s="17"/>
       <c r="R30" s="22">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="T30" s="16">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U30" s="17"/>
       <c r="V30" s="22">
@@ -3189,13 +3189,13 @@
       </c>
       <c r="AC30" s="17"/>
       <c r="AD30" s="22">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AE30" s="21">
         <v>704</v>
       </c>
       <c r="AF30" s="16">
-        <v>6340</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3219,7 +3219,7 @@
         <v>84</v>
       </c>
       <c r="H31" s="16">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="22">
@@ -3239,7 +3239,7 @@
         <v>128</v>
       </c>
       <c r="P31" s="16">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="Q31" s="17"/>
       <c r="R31" s="22">
@@ -3249,7 +3249,7 @@
         <v>18</v>
       </c>
       <c r="T31" s="16">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U31" s="17"/>
       <c r="V31" s="22">
@@ -3279,7 +3279,7 @@
         <v>665</v>
       </c>
       <c r="AF31" s="16">
-        <v>6305</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3303,7 +3303,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="16">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="22">
@@ -3323,7 +3323,7 @@
         <v>113</v>
       </c>
       <c r="P32" s="16">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="Q32" s="17"/>
       <c r="R32" s="22">
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="T32" s="16">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U32" s="17"/>
       <c r="V32" s="22">
@@ -3363,7 +3363,7 @@
         <v>600</v>
       </c>
       <c r="AF32" s="16">
-        <v>6297</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3387,7 +3387,7 @@
         <v>71</v>
       </c>
       <c r="H33" s="16">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="22">
@@ -3407,7 +3407,7 @@
         <v>119</v>
       </c>
       <c r="P33" s="16">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="Q33" s="17"/>
       <c r="R33" s="22">
@@ -3417,7 +3417,7 @@
         <v>25</v>
       </c>
       <c r="T33" s="16">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U33" s="17"/>
       <c r="V33" s="22">
@@ -3447,7 +3447,7 @@
         <v>615</v>
       </c>
       <c r="AF33" s="16">
-        <v>6147</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3471,7 +3471,7 @@
         <v>79</v>
       </c>
       <c r="H34" s="16">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="22">
@@ -3491,7 +3491,7 @@
         <v>140</v>
       </c>
       <c r="P34" s="16">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="Q34" s="17"/>
       <c r="R34" s="22">
@@ -3501,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="T34" s="16">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U34" s="17"/>
       <c r="V34" s="22">
@@ -3531,7 +3531,7 @@
         <v>636</v>
       </c>
       <c r="AF34" s="16">
-        <v>5999</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3555,7 +3555,7 @@
         <v>65</v>
       </c>
       <c r="H35" s="16">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="22">
@@ -3575,17 +3575,17 @@
         <v>103</v>
       </c>
       <c r="P35" s="16">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="Q35" s="17"/>
       <c r="R35" s="22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S35" s="21">
         <v>27</v>
       </c>
       <c r="T35" s="16">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U35" s="17"/>
       <c r="V35" s="22">
@@ -3609,13 +3609,13 @@
       </c>
       <c r="AC35" s="17"/>
       <c r="AD35" s="22">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AE35" s="21">
         <v>618</v>
       </c>
       <c r="AF35" s="16">
-        <v>5864</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3639,7 +3639,7 @@
         <v>84</v>
       </c>
       <c r="H36" s="16">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="22">
@@ -3659,17 +3659,17 @@
         <v>101</v>
       </c>
       <c r="P36" s="16">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="Q36" s="17"/>
       <c r="R36" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S36" s="21">
         <v>19</v>
       </c>
       <c r="T36" s="16">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="22">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="AC36" s="17"/>
       <c r="AD36" s="22">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AE36" s="21">
         <v>634</v>
@@ -3717,13 +3717,13 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="22">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="21">
         <v>77</v>
       </c>
       <c r="H37" s="16">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="22">
@@ -3737,23 +3737,23 @@
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O37" s="21">
         <v>123</v>
       </c>
       <c r="P37" s="16">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="Q37" s="17"/>
       <c r="R37" s="22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S37" s="21">
         <v>27</v>
       </c>
       <c r="T37" s="16">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="U37" s="17"/>
       <c r="V37" s="22">
@@ -3777,13 +3777,13 @@
       </c>
       <c r="AC37" s="17"/>
       <c r="AD37" s="22">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AE37" s="21">
         <v>754</v>
       </c>
       <c r="AF37" s="16">
-        <v>5583</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3807,7 +3807,7 @@
         <v>72</v>
       </c>
       <c r="H38" s="16">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="22">
@@ -3827,17 +3827,17 @@
         <v>119</v>
       </c>
       <c r="P38" s="16">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="Q38" s="17"/>
       <c r="R38" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S38" s="21">
         <v>15</v>
       </c>
       <c r="T38" s="16">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U38" s="17"/>
       <c r="V38" s="22">
@@ -3861,13 +3861,13 @@
       </c>
       <c r="AC38" s="17"/>
       <c r="AD38" s="22">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AE38" s="21">
         <v>709</v>
       </c>
       <c r="AF38" s="16">
-        <v>5461</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3891,7 +3891,7 @@
         <v>97</v>
       </c>
       <c r="H39" s="16">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="22">
@@ -3911,17 +3911,17 @@
         <v>133</v>
       </c>
       <c r="P39" s="16">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S39" s="21">
         <v>27</v>
       </c>
       <c r="T39" s="16">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="U39" s="16"/>
       <c r="V39" s="22">
@@ -3945,13 +3945,13 @@
       </c>
       <c r="AC39" s="16"/>
       <c r="AD39" s="22">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AE39" s="21">
         <v>783</v>
       </c>
       <c r="AF39" s="16">
-        <v>5331</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -3975,7 +3975,7 @@
         <v>85</v>
       </c>
       <c r="H40" s="16">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="22">
@@ -3995,7 +3995,7 @@
         <v>124</v>
       </c>
       <c r="P40" s="16">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="22">
@@ -4005,7 +4005,7 @@
         <v>23</v>
       </c>
       <c r="T40" s="16">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="U40" s="16"/>
       <c r="V40" s="22">
@@ -4035,7 +4035,7 @@
         <v>783</v>
       </c>
       <c r="AF40" s="16">
-        <v>5242</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4059,7 +4059,7 @@
         <v>82</v>
       </c>
       <c r="H41" s="16">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="22">
@@ -4079,7 +4079,7 @@
         <v>93</v>
       </c>
       <c r="P41" s="16">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="22">
@@ -4089,7 +4089,7 @@
         <v>31</v>
       </c>
       <c r="T41" s="16">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="U41" s="16"/>
       <c r="V41" s="22">
@@ -4119,7 +4119,7 @@
         <v>666</v>
       </c>
       <c r="AF41" s="16">
-        <v>5269</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4143,7 +4143,7 @@
         <v>78</v>
       </c>
       <c r="H42" s="16">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="22">
@@ -4163,7 +4163,7 @@
         <v>132</v>
       </c>
       <c r="P42" s="16">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="22">
@@ -4173,7 +4173,7 @@
         <v>24</v>
       </c>
       <c r="T42" s="16">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="U42" s="16"/>
       <c r="V42" s="22">
@@ -4203,7 +4203,7 @@
         <v>730</v>
       </c>
       <c r="AF42" s="16">
-        <v>5422</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4221,13 +4221,13 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="22">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" s="21">
         <v>80</v>
       </c>
       <c r="H43" s="16">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="22">
@@ -4247,7 +4247,7 @@
         <v>135</v>
       </c>
       <c r="P43" s="16">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="Q43" s="16"/>
       <c r="R43" s="22">
@@ -4257,7 +4257,7 @@
         <v>22</v>
       </c>
       <c r="T43" s="16">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="U43" s="16"/>
       <c r="V43" s="22">
@@ -4281,13 +4281,13 @@
       </c>
       <c r="AC43" s="16"/>
       <c r="AD43" s="22">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AE43" s="21">
         <v>761</v>
       </c>
       <c r="AF43" s="16">
-        <v>5438</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4311,7 +4311,7 @@
         <v>98</v>
       </c>
       <c r="H44" s="16">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="22">
@@ -4331,7 +4331,7 @@
         <v>151</v>
       </c>
       <c r="P44" s="16">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="Q44" s="16"/>
       <c r="R44" s="22">
@@ -4341,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="T44" s="16">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="U44" s="16"/>
       <c r="V44" s="22">
@@ -4371,7 +4371,7 @@
         <v>902</v>
       </c>
       <c r="AF44" s="16">
-        <v>5546</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4395,7 +4395,7 @@
         <v>106</v>
       </c>
       <c r="H45" s="16">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="22">
@@ -4409,13 +4409,13 @@
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O45" s="21">
         <v>158</v>
       </c>
       <c r="P45" s="16">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="22">
@@ -4425,7 +4425,7 @@
         <v>37</v>
       </c>
       <c r="T45" s="16">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="U45" s="16"/>
       <c r="V45" s="22">
@@ -4449,13 +4449,13 @@
       </c>
       <c r="AC45" s="16"/>
       <c r="AD45" s="22">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AE45" s="21">
         <v>958</v>
       </c>
       <c r="AF45" s="16">
-        <v>5615</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4479,7 +4479,7 @@
         <v>101</v>
       </c>
       <c r="H46" s="16">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="22">
@@ -4499,17 +4499,17 @@
         <v>168</v>
       </c>
       <c r="P46" s="16">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S46" s="21">
         <v>33</v>
       </c>
       <c r="T46" s="16">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U46" s="16"/>
       <c r="V46" s="22">
@@ -4533,13 +4533,13 @@
       </c>
       <c r="AC46" s="16"/>
       <c r="AD46" s="22">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AE46" s="21">
         <v>986</v>
       </c>
       <c r="AF46" s="16">
-        <v>5732</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4563,7 +4563,7 @@
         <v>117</v>
       </c>
       <c r="H47" s="16">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="22">
@@ -4583,7 +4583,7 @@
         <v>162</v>
       </c>
       <c r="P47" s="16">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="22">
@@ -4593,7 +4593,7 @@
         <v>38</v>
       </c>
       <c r="T47" s="16">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U47" s="16"/>
       <c r="V47" s="22">
@@ -4623,7 +4623,7 @@
         <v>1011</v>
       </c>
       <c r="AF47" s="16">
-        <v>5704</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4641,13 +4641,13 @@
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="22">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G48" s="21">
         <v>108</v>
       </c>
       <c r="H48" s="16">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="22">
@@ -4667,7 +4667,7 @@
         <v>167</v>
       </c>
       <c r="P48" s="16">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="Q48" s="16"/>
       <c r="R48" s="22">
@@ -4677,7 +4677,7 @@
         <v>43</v>
       </c>
       <c r="T48" s="16">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="U48" s="16"/>
       <c r="V48" s="22">
@@ -4701,13 +4701,13 @@
       </c>
       <c r="AC48" s="16"/>
       <c r="AD48" s="22">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AE48" s="21">
         <v>995</v>
       </c>
       <c r="AF48" s="16">
-        <v>5864</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4731,7 +4731,7 @@
         <v>120</v>
       </c>
       <c r="H49" s="16">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="22">
@@ -4751,7 +4751,7 @@
         <v>146</v>
       </c>
       <c r="P49" s="16">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="22">
@@ -4761,7 +4761,7 @@
         <v>45</v>
       </c>
       <c r="T49" s="16">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U49" s="16"/>
       <c r="V49" s="22">
@@ -4791,7 +4791,7 @@
         <v>1114</v>
       </c>
       <c r="AF49" s="16">
-        <v>5977</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4815,7 +4815,7 @@
         <v>116</v>
       </c>
       <c r="H50" s="16">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="22">
@@ -4829,13 +4829,13 @@
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O50" s="21">
         <v>167</v>
       </c>
       <c r="P50" s="16">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="22">
@@ -4845,7 +4845,7 @@
         <v>37</v>
       </c>
       <c r="T50" s="16">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="U50" s="16"/>
       <c r="V50" s="22">
@@ -4869,13 +4869,13 @@
       </c>
       <c r="AC50" s="16"/>
       <c r="AD50" s="22">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="AE50" s="21">
         <v>1104</v>
       </c>
       <c r="AF50" s="16">
-        <v>6043</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4899,7 +4899,7 @@
         <v>132</v>
       </c>
       <c r="H51" s="16">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="22">
@@ -4913,13 +4913,13 @@
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O51" s="21">
         <v>177</v>
       </c>
       <c r="P51" s="16">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="22">
@@ -4929,7 +4929,7 @@
         <v>41</v>
       </c>
       <c r="T51" s="16">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="U51" s="16"/>
       <c r="V51" s="22">
@@ -4953,13 +4953,13 @@
       </c>
       <c r="AC51" s="16"/>
       <c r="AD51" s="22">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AE51" s="21">
         <v>1167</v>
       </c>
       <c r="AF51" s="16">
-        <v>6129</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -4983,7 +4983,7 @@
         <v>99</v>
       </c>
       <c r="H52" s="16">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="22">
@@ -4997,13 +4997,13 @@
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O52" s="21">
         <v>159</v>
       </c>
       <c r="P52" s="16">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="22">
@@ -5013,7 +5013,7 @@
         <v>43</v>
       </c>
       <c r="T52" s="16">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="U52" s="16"/>
       <c r="V52" s="22">
@@ -5037,13 +5037,13 @@
       </c>
       <c r="AC52" s="16"/>
       <c r="AD52" s="22">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AE52" s="21">
         <v>1153</v>
       </c>
       <c r="AF52" s="16">
-        <v>6012</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5067,7 +5067,7 @@
         <v>94</v>
       </c>
       <c r="H53" s="16">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="22">
@@ -5087,7 +5087,7 @@
         <v>149</v>
       </c>
       <c r="P53" s="16">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="22">
@@ -5097,7 +5097,7 @@
         <v>35</v>
       </c>
       <c r="T53" s="16">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="U53" s="16"/>
       <c r="V53" s="22">
@@ -5127,7 +5127,7 @@
         <v>1003</v>
       </c>
       <c r="AF53" s="16">
-        <v>6101</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5151,7 +5151,7 @@
         <v>102</v>
       </c>
       <c r="H54" s="16">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="22">
@@ -5171,17 +5171,17 @@
         <v>154</v>
       </c>
       <c r="P54" s="16">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S54" s="21">
         <v>36</v>
       </c>
       <c r="T54" s="16">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="U54" s="16"/>
       <c r="V54" s="22">
@@ -5205,13 +5205,13 @@
       </c>
       <c r="AC54" s="16"/>
       <c r="AD54" s="22">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AE54" s="21">
         <v>1021</v>
       </c>
       <c r="AF54" s="16">
-        <v>6338</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5235,7 +5235,7 @@
         <v>96</v>
       </c>
       <c r="H55" s="16">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="22">
@@ -5255,17 +5255,17 @@
         <v>174</v>
       </c>
       <c r="P55" s="16">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="Q55" s="16"/>
       <c r="R55" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S55" s="21">
         <v>42</v>
       </c>
       <c r="T55" s="16">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="U55" s="16"/>
       <c r="V55" s="22">
@@ -5289,13 +5289,13 @@
       </c>
       <c r="AC55" s="16"/>
       <c r="AD55" s="22">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AE55" s="21">
         <v>1099</v>
       </c>
       <c r="AF55" s="16">
-        <v>6392</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5319,7 +5319,7 @@
         <v>142</v>
       </c>
       <c r="H56" s="16">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="22">
@@ -5339,17 +5339,17 @@
         <v>188</v>
       </c>
       <c r="P56" s="16">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="Q56" s="16"/>
       <c r="R56" s="22">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S56" s="21">
         <v>39</v>
       </c>
       <c r="T56" s="16">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="U56" s="16"/>
       <c r="V56" s="22">
@@ -5373,13 +5373,13 @@
       </c>
       <c r="AC56" s="16"/>
       <c r="AD56" s="22">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AE56" s="21">
         <v>1335</v>
       </c>
       <c r="AF56" s="16">
-        <v>6233</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5397,13 +5397,13 @@
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="22">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" s="21">
         <v>140</v>
       </c>
       <c r="H57" s="16">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="22">
@@ -5423,7 +5423,7 @@
         <v>181</v>
       </c>
       <c r="P57" s="16">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="22">
@@ -5433,7 +5433,7 @@
         <v>49</v>
       </c>
       <c r="T57" s="16">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="U57" s="16"/>
       <c r="V57" s="22">
@@ -5457,13 +5457,13 @@
       </c>
       <c r="AC57" s="16"/>
       <c r="AD57" s="22">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AE57" s="21">
         <v>1294</v>
       </c>
       <c r="AF57" s="16">
-        <v>6239</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5487,7 +5487,7 @@
         <v>164</v>
       </c>
       <c r="H58" s="16">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="22">
@@ -5507,7 +5507,7 @@
         <v>204</v>
       </c>
       <c r="P58" s="16">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="22">
@@ -5517,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="T58" s="16">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="U58" s="16"/>
       <c r="V58" s="22">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="Y58" s="16"/>
       <c r="Z58" s="22">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AA58" s="21">
         <v>500</v>
       </c>
       <c r="AB58" s="16">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="AC58" s="16"/>
       <c r="AD58" s="22">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AE58" s="21">
         <v>1380</v>
       </c>
       <c r="AF58" s="16">
-        <v>6235</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5571,7 +5571,7 @@
         <v>142</v>
       </c>
       <c r="H59" s="16">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="22">
@@ -5591,17 +5591,17 @@
         <v>166</v>
       </c>
       <c r="P59" s="16">
-        <v>1072</v>
+        <v>1081</v>
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S59" s="21">
         <v>46</v>
       </c>
       <c r="T59" s="16">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="U59" s="16"/>
       <c r="V59" s="22">
@@ -5621,17 +5621,17 @@
         <v>506</v>
       </c>
       <c r="AB59" s="16">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="AC59" s="16"/>
       <c r="AD59" s="22">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AE59" s="21">
         <v>1303</v>
       </c>
       <c r="AF59" s="16">
-        <v>6288</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5655,7 +5655,7 @@
         <v>139</v>
       </c>
       <c r="H60" s="16">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="22">
@@ -5675,7 +5675,7 @@
         <v>183</v>
       </c>
       <c r="P60" s="16">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="22">
@@ -5685,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="T60" s="16">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="U60" s="16"/>
       <c r="V60" s="22">
@@ -5705,7 +5705,7 @@
         <v>479</v>
       </c>
       <c r="AB60" s="16">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AC60" s="16"/>
       <c r="AD60" s="22">
@@ -5715,7 +5715,7 @@
         <v>1335</v>
       </c>
       <c r="AF60" s="16">
-        <v>6409</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5739,7 +5739,7 @@
         <v>130</v>
       </c>
       <c r="H61" s="16">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="22">
@@ -5759,17 +5759,17 @@
         <v>210</v>
       </c>
       <c r="P61" s="16">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S61" s="21">
         <v>41</v>
       </c>
       <c r="T61" s="16">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U61" s="16"/>
       <c r="V61" s="22">
@@ -5789,17 +5789,17 @@
         <v>526</v>
       </c>
       <c r="AB61" s="16">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="AC61" s="16"/>
       <c r="AD61" s="22">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AE61" s="21">
         <v>1370</v>
       </c>
       <c r="AF61" s="16">
-        <v>6382</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5823,7 +5823,7 @@
         <v>120</v>
       </c>
       <c r="H62" s="16">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="22">
@@ -5843,17 +5843,17 @@
         <v>182</v>
       </c>
       <c r="P62" s="16">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S62" s="21">
         <v>47</v>
       </c>
       <c r="T62" s="16">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="U62" s="16"/>
       <c r="V62" s="22">
@@ -5873,17 +5873,17 @@
         <v>500</v>
       </c>
       <c r="AB62" s="16">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="AC62" s="16"/>
       <c r="AD62" s="22">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="AE62" s="21">
         <v>1281</v>
       </c>
       <c r="AF62" s="16">
-        <v>6501</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5907,7 +5907,7 @@
         <v>123</v>
       </c>
       <c r="H63" s="16">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="22">
@@ -5927,7 +5927,7 @@
         <v>203</v>
       </c>
       <c r="P63" s="16">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="22">
@@ -5937,7 +5937,7 @@
         <v>36</v>
       </c>
       <c r="T63" s="16">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="U63" s="16"/>
       <c r="V63" s="22">
@@ -5957,7 +5957,7 @@
         <v>454</v>
       </c>
       <c r="AB63" s="16">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="AC63" s="16"/>
       <c r="AD63" s="22">
@@ -5967,7 +5967,7 @@
         <v>1263</v>
       </c>
       <c r="AF63" s="16">
-        <v>6734</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5991,7 +5991,7 @@
         <v>87</v>
       </c>
       <c r="H64" s="16">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="22">
@@ -6011,17 +6011,17 @@
         <v>189</v>
       </c>
       <c r="P64" s="16">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="22">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S64" s="21">
         <v>44</v>
       </c>
       <c r="T64" s="16">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="U64" s="16"/>
       <c r="V64" s="22">
@@ -6041,17 +6041,17 @@
         <v>468</v>
       </c>
       <c r="AB64" s="16">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="AC64" s="16"/>
       <c r="AD64" s="22">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="AE64" s="21">
         <v>1164</v>
       </c>
       <c r="AF64" s="16">
-        <v>6971</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6075,7 +6075,7 @@
         <v>80</v>
       </c>
       <c r="H65" s="16">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="22">
@@ -6095,7 +6095,7 @@
         <v>145</v>
       </c>
       <c r="P65" s="16">
-        <v>1195</v>
+        <v>1204</v>
       </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="22">
@@ -6105,7 +6105,7 @@
         <v>39</v>
       </c>
       <c r="T65" s="16">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="U65" s="16"/>
       <c r="V65" s="22">
@@ -6125,7 +6125,7 @@
         <v>428</v>
       </c>
       <c r="AB65" s="16">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AC65" s="16"/>
       <c r="AD65" s="22">
@@ -6135,7 +6135,7 @@
         <v>1014</v>
       </c>
       <c r="AF65" s="16">
-        <v>7299</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6159,7 +6159,7 @@
         <v>102</v>
       </c>
       <c r="H66" s="16">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="22">
@@ -6173,23 +6173,23 @@
       </c>
       <c r="M66" s="22"/>
       <c r="N66" s="22">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O66" s="21">
         <v>175</v>
       </c>
       <c r="P66" s="16">
-        <v>1244</v>
+        <v>1254</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S66" s="21">
         <v>39</v>
       </c>
       <c r="T66" s="16">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="U66" s="16"/>
       <c r="V66" s="22">
@@ -6209,7 +6209,7 @@
         <v>489</v>
       </c>
       <c r="AB66" s="16">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="AC66" s="16"/>
       <c r="AD66" s="22">
@@ -6219,7 +6219,7 @@
         <v>1127</v>
       </c>
       <c r="AF66" s="16">
-        <v>7635</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6243,7 +6243,7 @@
         <v>111</v>
       </c>
       <c r="H67" s="16">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="22">
@@ -6263,7 +6263,7 @@
         <v>169</v>
       </c>
       <c r="P67" s="16">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="22">
@@ -6273,7 +6273,7 @@
         <v>38</v>
       </c>
       <c r="T67" s="16">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="U67" s="16"/>
       <c r="V67" s="22">
@@ -6293,7 +6293,7 @@
         <v>467</v>
       </c>
       <c r="AB67" s="16">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="AC67" s="16"/>
       <c r="AD67" s="22">
@@ -6303,7 +6303,7 @@
         <v>1109</v>
       </c>
       <c r="AF67" s="16">
-        <v>7852</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6327,7 +6327,7 @@
         <v>114</v>
       </c>
       <c r="H68" s="16">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="22">
@@ -6347,7 +6347,7 @@
         <v>210</v>
       </c>
       <c r="P68" s="16">
-        <v>1289</v>
+        <v>1299</v>
       </c>
       <c r="Q68" s="16"/>
       <c r="R68" s="22">
@@ -6357,7 +6357,7 @@
         <v>45</v>
       </c>
       <c r="T68" s="16">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="U68" s="16"/>
       <c r="V68" s="22">
@@ -6377,7 +6377,7 @@
         <v>511</v>
       </c>
       <c r="AB68" s="16">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="AC68" s="16"/>
       <c r="AD68" s="22">
@@ -6387,7 +6387,7 @@
         <v>1317</v>
       </c>
       <c r="AF68" s="16">
-        <v>7925</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6405,13 +6405,13 @@
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="22">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G69" s="21">
         <v>129</v>
       </c>
       <c r="H69" s="16">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="22">
@@ -6425,23 +6425,23 @@
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="21">
         <v>185</v>
       </c>
       <c r="P69" s="16">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S69" s="21">
         <v>43</v>
       </c>
       <c r="T69" s="16">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="U69" s="16"/>
       <c r="V69" s="22">
@@ -6461,17 +6461,17 @@
         <v>465</v>
       </c>
       <c r="AB69" s="16">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="AC69" s="16"/>
       <c r="AD69" s="22">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="AE69" s="21">
         <v>1253</v>
       </c>
       <c r="AF69" s="16">
-        <v>8039</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6495,7 +6495,7 @@
         <v>126</v>
       </c>
       <c r="H70" s="16">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="22">
@@ -6515,17 +6515,17 @@
         <v>186</v>
       </c>
       <c r="P70" s="16">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S70" s="21">
         <v>32</v>
       </c>
       <c r="T70" s="16">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="U70" s="16"/>
       <c r="V70" s="22">
@@ -6545,17 +6545,17 @@
         <v>533</v>
       </c>
       <c r="AB70" s="16">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="AC70" s="16"/>
       <c r="AD70" s="22">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="AE70" s="21">
         <v>1308</v>
       </c>
       <c r="AF70" s="16">
-        <v>8102</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6579,7 +6579,7 @@
         <v>152</v>
       </c>
       <c r="H71" s="16">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="22">
@@ -6599,7 +6599,7 @@
         <v>179</v>
       </c>
       <c r="P71" s="16">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="Q71" s="16"/>
       <c r="R71" s="22">
@@ -6609,7 +6609,7 @@
         <v>38</v>
       </c>
       <c r="T71" s="16">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="U71" s="16"/>
       <c r="V71" s="22">
@@ -6629,7 +6629,7 @@
         <v>499</v>
       </c>
       <c r="AB71" s="16">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="AC71" s="16"/>
       <c r="AD71" s="22">
@@ -6639,7 +6639,7 @@
         <v>1286</v>
       </c>
       <c r="AF71" s="16">
-        <v>8143</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6663,7 +6663,7 @@
         <v>114</v>
       </c>
       <c r="H72" s="16">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="22">
@@ -6683,17 +6683,17 @@
         <v>185</v>
       </c>
       <c r="P72" s="16">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S72" s="21">
         <v>44</v>
       </c>
       <c r="T72" s="16">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="U72" s="16"/>
       <c r="V72" s="22">
@@ -6713,17 +6713,17 @@
         <v>515</v>
       </c>
       <c r="AB72" s="16">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="22">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AE72" s="21">
         <v>1268</v>
       </c>
       <c r="AF72" s="16">
-        <v>8195</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6747,7 +6747,7 @@
         <v>136</v>
       </c>
       <c r="H73" s="16">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="22">
@@ -6767,7 +6767,7 @@
         <v>211</v>
       </c>
       <c r="P73" s="16">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="Q73" s="16"/>
       <c r="R73" s="22">
@@ -6777,7 +6777,7 @@
         <v>34</v>
       </c>
       <c r="T73" s="16">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="U73" s="16"/>
       <c r="V73" s="22">
@@ -6791,23 +6791,23 @@
       </c>
       <c r="Y73" s="16"/>
       <c r="Z73" s="22">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA73" s="21">
         <v>466</v>
       </c>
       <c r="AB73" s="16">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="AC73" s="16"/>
       <c r="AD73" s="22">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AE73" s="21">
         <v>1267</v>
       </c>
       <c r="AF73" s="16">
-        <v>8143</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6831,7 +6831,7 @@
         <v>80</v>
       </c>
       <c r="H74" s="16">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="22">
@@ -6851,17 +6851,17 @@
         <v>214</v>
       </c>
       <c r="P74" s="16">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="Q74" s="16"/>
       <c r="R74" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S74" s="21">
         <v>25</v>
       </c>
       <c r="T74" s="16">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="U74" s="16"/>
       <c r="V74" s="22">
@@ -6878,20 +6878,20 @@
         <v>501</v>
       </c>
       <c r="AA74" s="21">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AB74" s="16">
-        <v>3333</v>
+        <v>3329</v>
       </c>
       <c r="AC74" s="16"/>
       <c r="AD74" s="22">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AE74" s="21">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="AF74" s="16">
-        <v>8247</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6915,7 +6915,7 @@
         <v>77</v>
       </c>
       <c r="H75" s="16">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="22">
@@ -6935,7 +6935,7 @@
         <v>145</v>
       </c>
       <c r="P75" s="16">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="Q75" s="16"/>
       <c r="R75" s="22">
@@ -6945,7 +6945,7 @@
         <v>35</v>
       </c>
       <c r="T75" s="16">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="U75" s="16"/>
       <c r="V75" s="22">
@@ -6965,7 +6965,7 @@
         <v>517</v>
       </c>
       <c r="AB75" s="16">
-        <v>3286</v>
+        <v>3282</v>
       </c>
       <c r="AC75" s="16"/>
       <c r="AD75" s="22">
@@ -6975,7 +6975,7 @@
         <v>1082</v>
       </c>
       <c r="AF75" s="16">
-        <v>8285</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6999,7 +6999,7 @@
         <v>85</v>
       </c>
       <c r="H76" s="16">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="22">
@@ -7019,7 +7019,7 @@
         <v>146</v>
       </c>
       <c r="P76" s="16">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="Q76" s="16"/>
       <c r="R76" s="22">
@@ -7029,7 +7029,7 @@
         <v>27</v>
       </c>
       <c r="T76" s="16">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="U76" s="16"/>
       <c r="V76" s="22">
@@ -7049,7 +7049,7 @@
         <v>448</v>
       </c>
       <c r="AB76" s="16">
-        <v>3304</v>
+        <v>3300</v>
       </c>
       <c r="AC76" s="16"/>
       <c r="AD76" s="22">
@@ -7059,7 +7059,7 @@
         <v>980</v>
       </c>
       <c r="AF76" s="16">
-        <v>8312</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7083,7 +7083,7 @@
         <v>83</v>
       </c>
       <c r="H77" s="16">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="22">
@@ -7103,17 +7103,17 @@
         <v>136</v>
       </c>
       <c r="P77" s="16">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="Q77" s="16"/>
       <c r="R77" s="22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S77" s="21">
         <v>30</v>
       </c>
       <c r="T77" s="16">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="U77" s="16"/>
       <c r="V77" s="22">
@@ -7133,17 +7133,17 @@
         <v>411</v>
       </c>
       <c r="AB77" s="16">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="AC77" s="16"/>
       <c r="AD77" s="22">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AE77" s="21">
         <v>886</v>
       </c>
       <c r="AF77" s="16">
-        <v>8459</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7167,7 +7167,7 @@
         <v>80</v>
       </c>
       <c r="H78" s="16">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="22">
@@ -7181,13 +7181,13 @@
       </c>
       <c r="M78" s="22"/>
       <c r="N78" s="22">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O78" s="21">
         <v>189</v>
       </c>
       <c r="P78" s="16">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="Q78" s="16"/>
       <c r="R78" s="22">
@@ -7197,7 +7197,7 @@
         <v>22</v>
       </c>
       <c r="T78" s="16">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="U78" s="16"/>
       <c r="V78" s="22">
@@ -7217,17 +7217,17 @@
         <v>460</v>
       </c>
       <c r="AB78" s="16">
-        <v>3333</v>
+        <v>3329</v>
       </c>
       <c r="AC78" s="16"/>
       <c r="AD78" s="22">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AE78" s="21">
         <v>1040</v>
       </c>
       <c r="AF78" s="16">
-        <v>8507</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7251,7 +7251,7 @@
         <v>104</v>
       </c>
       <c r="H79" s="16">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="22">
@@ -7271,7 +7271,7 @@
         <v>190</v>
       </c>
       <c r="P79" s="16">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="Q79" s="16"/>
       <c r="R79" s="22">
@@ -7281,7 +7281,7 @@
         <v>48</v>
       </c>
       <c r="T79" s="16">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="U79" s="16"/>
       <c r="V79" s="22">
@@ -7301,7 +7301,7 @@
         <v>499</v>
       </c>
       <c r="AB79" s="16">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="AC79" s="16"/>
       <c r="AD79" s="22">
@@ -7311,7 +7311,7 @@
         <v>1139</v>
       </c>
       <c r="AF79" s="16">
-        <v>8424</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7335,7 +7335,7 @@
         <v>98</v>
       </c>
       <c r="H80" s="16">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="22">
@@ -7355,7 +7355,7 @@
         <v>148</v>
       </c>
       <c r="P80" s="16">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="Q80" s="16"/>
       <c r="R80" s="22">
@@ -7365,7 +7365,7 @@
         <v>38</v>
       </c>
       <c r="T80" s="16">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="U80" s="16"/>
       <c r="V80" s="22">
@@ -7385,7 +7385,7 @@
         <v>491</v>
       </c>
       <c r="AB80" s="16">
-        <v>3270</v>
+        <v>3266</v>
       </c>
       <c r="AC80" s="16"/>
       <c r="AD80" s="22">
@@ -7395,7 +7395,7 @@
         <v>1090</v>
       </c>
       <c r="AF80" s="16">
-        <v>8429</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7419,7 +7419,7 @@
         <v>100</v>
       </c>
       <c r="H81" s="16">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="22">
@@ -7439,7 +7439,7 @@
         <v>77</v>
       </c>
       <c r="P81" s="16">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="Q81" s="16"/>
       <c r="R81" s="22">
@@ -7449,7 +7449,7 @@
         <v>26</v>
       </c>
       <c r="T81" s="16">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="U81" s="16"/>
       <c r="V81" s="22">
@@ -7469,7 +7469,7 @@
         <v>271</v>
       </c>
       <c r="AB81" s="16">
-        <v>3331</v>
+        <v>3327</v>
       </c>
       <c r="AC81" s="16"/>
       <c r="AD81" s="22">
@@ -7479,7 +7479,7 @@
         <v>604</v>
       </c>
       <c r="AF81" s="16">
-        <v>8578</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7503,7 +7503,7 @@
         <v>77</v>
       </c>
       <c r="H82" s="16">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="22">
@@ -7523,7 +7523,7 @@
         <v>20</v>
       </c>
       <c r="P82" s="16">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="Q82" s="16"/>
       <c r="R82" s="22">
@@ -7533,7 +7533,7 @@
         <v>21</v>
       </c>
       <c r="T82" s="16">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="U82" s="16"/>
       <c r="V82" s="22">
@@ -7547,23 +7547,23 @@
       </c>
       <c r="Y82" s="16"/>
       <c r="Z82" s="22">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA82" s="21">
         <v>87</v>
       </c>
       <c r="AB82" s="16">
-        <v>3445</v>
+        <v>3440</v>
       </c>
       <c r="AC82" s="16"/>
       <c r="AD82" s="22">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AE82" s="21">
         <v>265</v>
       </c>
       <c r="AF82" s="16">
-        <v>8741</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7587,7 +7587,7 @@
         <v>73</v>
       </c>
       <c r="H83" s="16">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="22">
@@ -7607,7 +7607,7 @@
         <v>26</v>
       </c>
       <c r="P83" s="16">
-        <v>1453</v>
+        <v>1465</v>
       </c>
       <c r="Q83" s="16"/>
       <c r="R83" s="22">
@@ -7617,7 +7617,7 @@
         <v>26</v>
       </c>
       <c r="T83" s="16">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="U83" s="16"/>
       <c r="V83" s="22">
@@ -7637,7 +7637,7 @@
         <v>82</v>
       </c>
       <c r="AB83" s="16">
-        <v>3514</v>
+        <v>3509</v>
       </c>
       <c r="AC83" s="16"/>
       <c r="AD83" s="22">
@@ -7647,7 +7647,7 @@
         <v>257</v>
       </c>
       <c r="AF83" s="16">
-        <v>8809</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7671,7 +7671,7 @@
         <v>65</v>
       </c>
       <c r="H84" s="16">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="22">
@@ -7691,7 +7691,7 @@
         <v>27</v>
       </c>
       <c r="P84" s="16">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="Q84" s="16"/>
       <c r="R84" s="22">
@@ -7701,7 +7701,7 @@
         <v>23</v>
       </c>
       <c r="T84" s="16">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="U84" s="16"/>
       <c r="V84" s="22">
@@ -7721,7 +7721,7 @@
         <v>137</v>
       </c>
       <c r="AB84" s="16">
-        <v>3519</v>
+        <v>3514</v>
       </c>
       <c r="AC84" s="16"/>
       <c r="AD84" s="22">
@@ -7731,7 +7731,7 @@
         <v>316</v>
       </c>
       <c r="AF84" s="16">
-        <v>8791</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7755,7 +7755,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="16">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="22">
@@ -7775,7 +7775,7 @@
         <v>49</v>
       </c>
       <c r="P85" s="16">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="Q85" s="16"/>
       <c r="R85" s="22">
@@ -7785,7 +7785,7 @@
         <v>33</v>
       </c>
       <c r="T85" s="16">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="U85" s="16"/>
       <c r="V85" s="22">
@@ -7805,7 +7805,7 @@
         <v>224</v>
       </c>
       <c r="AB85" s="16">
-        <v>3437</v>
+        <v>3432</v>
       </c>
       <c r="AC85" s="16"/>
       <c r="AD85" s="22">
@@ -7815,7 +7815,7 @@
         <v>440</v>
       </c>
       <c r="AF85" s="16">
-        <v>8653</v>
+        <v>8634</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7839,7 +7839,7 @@
         <v>68</v>
       </c>
       <c r="H86" s="16">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="22">
@@ -7859,7 +7859,7 @@
         <v>69</v>
       </c>
       <c r="P86" s="16">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="Q86" s="16"/>
       <c r="R86" s="22">
@@ -7869,7 +7869,7 @@
         <v>28</v>
       </c>
       <c r="T86" s="16">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="U86" s="16"/>
       <c r="V86" s="22">
@@ -7889,7 +7889,7 @@
         <v>275</v>
       </c>
       <c r="AB86" s="16">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="AC86" s="16"/>
       <c r="AD86" s="22">
@@ -7899,7 +7899,7 @@
         <v>547</v>
       </c>
       <c r="AF86" s="16">
-        <v>8413</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -7923,7 +7923,7 @@
         <v>67</v>
       </c>
       <c r="H87" s="16">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="22">
@@ -7943,7 +7943,7 @@
         <v>57</v>
       </c>
       <c r="P87" s="16">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="Q87" s="16"/>
       <c r="R87" s="22">
@@ -7953,7 +7953,7 @@
         <v>48</v>
       </c>
       <c r="T87" s="16">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="U87" s="16"/>
       <c r="V87" s="22">
@@ -7973,7 +7973,7 @@
         <v>309</v>
       </c>
       <c r="AB87" s="16">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="AC87" s="16"/>
       <c r="AD87" s="22">
@@ -7983,7 +7983,7 @@
         <v>622</v>
       </c>
       <c r="AF87" s="16">
-        <v>8127</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8007,7 +8007,7 @@
         <v>51</v>
       </c>
       <c r="H88" s="16">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I88" s="29"/>
       <c r="J88" s="22">
@@ -8027,7 +8027,7 @@
         <v>68</v>
       </c>
       <c r="P88" s="16">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="Q88" s="16"/>
       <c r="R88" s="22">
@@ -8037,7 +8037,7 @@
         <v>42</v>
       </c>
       <c r="T88" s="16">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="U88" s="16"/>
       <c r="V88" s="22">
@@ -8057,7 +8057,7 @@
         <v>317</v>
       </c>
       <c r="AB88" s="16">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="AC88" s="16"/>
       <c r="AD88" s="22">
@@ -8067,7 +8067,7 @@
         <v>606</v>
       </c>
       <c r="AF88" s="16">
-        <v>7894</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8091,7 +8091,7 @@
         <v>61</v>
       </c>
       <c r="H89" s="16">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="22">
@@ -8111,7 +8111,7 @@
         <v>89</v>
       </c>
       <c r="P89" s="16">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="Q89" s="16"/>
       <c r="R89" s="22">
@@ -8121,7 +8121,7 @@
         <v>24</v>
       </c>
       <c r="T89" s="16">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="U89" s="16"/>
       <c r="V89" s="22">
@@ -8141,7 +8141,7 @@
         <v>301</v>
       </c>
       <c r="AB89" s="16">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="AC89" s="16"/>
       <c r="AD89" s="22">
@@ -8151,7 +8151,7 @@
         <v>610</v>
       </c>
       <c r="AF89" s="16">
-        <v>7695</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8175,7 +8175,7 @@
         <v>72</v>
       </c>
       <c r="H90" s="16">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="22">
@@ -8195,7 +8195,7 @@
         <v>86</v>
       </c>
       <c r="P90" s="16">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="Q90" s="16"/>
       <c r="R90" s="22">
@@ -8205,7 +8205,7 @@
         <v>47</v>
       </c>
       <c r="T90" s="16">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="U90" s="16"/>
       <c r="V90" s="22">
@@ -8225,7 +8225,7 @@
         <v>376</v>
       </c>
       <c r="AB90" s="16">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="AC90" s="16"/>
       <c r="AD90" s="22">
@@ -8235,7 +8235,7 @@
         <v>740</v>
       </c>
       <c r="AF90" s="16">
-        <v>7407</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8259,7 +8259,7 @@
         <v>52</v>
       </c>
       <c r="H91" s="16">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="I91" s="29"/>
       <c r="J91" s="22">
@@ -8279,7 +8279,7 @@
         <v>75</v>
       </c>
       <c r="P91" s="16">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="Q91" s="16"/>
       <c r="R91" s="22">
@@ -8289,7 +8289,7 @@
         <v>27</v>
       </c>
       <c r="T91" s="16">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="U91" s="16"/>
       <c r="V91" s="22">
@@ -8303,23 +8303,23 @@
       </c>
       <c r="Y91" s="16"/>
       <c r="Z91" s="22">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA91" s="21">
         <v>269</v>
       </c>
       <c r="AB91" s="16">
-        <v>2752</v>
+        <v>2746</v>
       </c>
       <c r="AC91" s="16"/>
       <c r="AD91" s="22">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AE91" s="21">
         <v>555</v>
       </c>
       <c r="AF91" s="16">
-        <v>7322</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8343,7 +8343,7 @@
         <v>94</v>
       </c>
       <c r="H92" s="16">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I92" s="29"/>
       <c r="J92" s="22">
@@ -8363,17 +8363,17 @@
         <v>109</v>
       </c>
       <c r="P92" s="16">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="Q92" s="16"/>
       <c r="R92" s="22">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S92" s="21">
         <v>39</v>
       </c>
       <c r="T92" s="16">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="U92" s="16"/>
       <c r="V92" s="22">
@@ -8393,17 +8393,17 @@
         <v>460</v>
       </c>
       <c r="AB92" s="16">
-        <v>2553</v>
+        <v>2547</v>
       </c>
       <c r="AC92" s="16"/>
       <c r="AD92" s="22">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AE92" s="21">
         <v>870</v>
       </c>
       <c r="AF92" s="16">
-        <v>6961</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8427,7 +8427,7 @@
         <v>72</v>
       </c>
       <c r="H93" s="16">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I93" s="29"/>
       <c r="J93" s="22">
@@ -8447,17 +8447,17 @@
         <v>83</v>
       </c>
       <c r="P93" s="16">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="Q93" s="16"/>
       <c r="R93" s="22">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S93" s="21">
         <v>45</v>
       </c>
       <c r="T93" s="16">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="U93" s="16"/>
       <c r="V93" s="22">
@@ -8477,17 +8477,17 @@
         <v>441</v>
       </c>
       <c r="AB93" s="16">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="AC93" s="16"/>
       <c r="AD93" s="22">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AE93" s="21">
         <v>831</v>
       </c>
       <c r="AF93" s="16">
-        <v>6669</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8511,7 +8511,7 @@
         <v>81</v>
       </c>
       <c r="H94" s="16">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="I94" s="29"/>
       <c r="J94" s="22">
@@ -8531,17 +8531,17 @@
         <v>108</v>
       </c>
       <c r="P94" s="16">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="Q94" s="16"/>
       <c r="R94" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S94" s="21">
         <v>44</v>
       </c>
       <c r="T94" s="16">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="U94" s="16"/>
       <c r="V94" s="22">
@@ -8561,17 +8561,17 @@
         <v>412</v>
       </c>
       <c r="AB94" s="16">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="AC94" s="16"/>
       <c r="AD94" s="22">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AE94" s="21">
         <v>839</v>
       </c>
       <c r="AF94" s="16">
-        <v>6386</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8595,7 +8595,7 @@
         <v>66</v>
       </c>
       <c r="H95" s="16">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I95" s="29"/>
       <c r="J95" s="22">
@@ -8615,17 +8615,17 @@
         <v>105</v>
       </c>
       <c r="P95" s="16">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="Q95" s="16"/>
       <c r="R95" s="22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S95" s="21">
         <v>44</v>
       </c>
       <c r="T95" s="16">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="U95" s="16"/>
       <c r="V95" s="22">
@@ -8645,17 +8645,17 @@
         <v>390</v>
       </c>
       <c r="AB95" s="16">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="AC95" s="16"/>
       <c r="AD95" s="22">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AE95" s="21">
         <v>751</v>
       </c>
       <c r="AF95" s="16">
-        <v>6215</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8679,7 +8679,7 @@
         <v>70</v>
       </c>
       <c r="H96" s="16">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I96" s="29"/>
       <c r="J96" s="22">
@@ -8699,17 +8699,17 @@
         <v>94</v>
       </c>
       <c r="P96" s="16">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="Q96" s="16"/>
       <c r="R96" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S96" s="21">
         <v>34</v>
       </c>
       <c r="T96" s="16">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="U96" s="16"/>
       <c r="V96" s="22">
@@ -8729,17 +8729,17 @@
         <v>419</v>
       </c>
       <c r="AB96" s="16">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="AC96" s="16"/>
       <c r="AD96" s="22">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AE96" s="21">
         <v>819</v>
       </c>
       <c r="AF96" s="16">
-        <v>6010</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8763,7 +8763,7 @@
         <v>59</v>
       </c>
       <c r="H97" s="16">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="I97" s="29"/>
       <c r="J97" s="22">
@@ -8783,17 +8783,17 @@
         <v>87</v>
       </c>
       <c r="P97" s="16">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="Q97" s="16"/>
       <c r="R97" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S97" s="21">
         <v>57</v>
       </c>
       <c r="T97" s="16">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="U97" s="16"/>
       <c r="V97" s="22">
@@ -8813,17 +8813,17 @@
         <v>418</v>
       </c>
       <c r="AB97" s="16">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="AC97" s="16"/>
       <c r="AD97" s="22">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AE97" s="21">
         <v>805</v>
       </c>
       <c r="AF97" s="16">
-        <v>5851</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8847,7 +8847,7 @@
         <v>86</v>
       </c>
       <c r="H98" s="16">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="I98" s="29"/>
       <c r="J98" s="22">
@@ -8867,17 +8867,17 @@
         <v>75</v>
       </c>
       <c r="P98" s="16">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="Q98" s="16"/>
       <c r="R98" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S98" s="21">
         <v>43</v>
       </c>
       <c r="T98" s="16">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="U98" s="16"/>
       <c r="V98" s="22">
@@ -8897,17 +8897,17 @@
         <v>414</v>
       </c>
       <c r="AB98" s="16">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="AC98" s="16"/>
       <c r="AD98" s="22">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AE98" s="21">
         <v>833</v>
       </c>
       <c r="AF98" s="16">
-        <v>5690</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -8931,7 +8931,7 @@
         <v>99</v>
       </c>
       <c r="H99" s="16">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I99" s="29"/>
       <c r="J99" s="22">
@@ -8951,17 +8951,17 @@
         <v>110</v>
       </c>
       <c r="P99" s="16">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="Q99" s="16"/>
       <c r="R99" s="22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S99" s="21">
         <v>38</v>
       </c>
       <c r="T99" s="16">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="U99" s="16"/>
       <c r="V99" s="22">
@@ -8975,23 +8975,23 @@
       </c>
       <c r="Y99" s="16"/>
       <c r="Z99" s="22">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA99" s="21">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB99" s="16">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="AC99" s="16"/>
       <c r="AD99" s="22">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AE99" s="21">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AF99" s="16">
-        <v>5403</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9015,7 +9015,7 @@
         <v>58</v>
       </c>
       <c r="H100" s="16">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I100" s="29"/>
       <c r="J100" s="22">
@@ -9035,17 +9035,17 @@
         <v>101</v>
       </c>
       <c r="P100" s="16">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="Q100" s="16"/>
       <c r="R100" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S100" s="21">
         <v>39</v>
       </c>
       <c r="T100" s="16">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="U100" s="16"/>
       <c r="V100" s="22">
@@ -9065,17 +9065,17 @@
         <v>417</v>
       </c>
       <c r="AB100" s="16">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="AC100" s="16"/>
       <c r="AD100" s="22">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AE100" s="21">
         <v>823</v>
       </c>
       <c r="AF100" s="16">
-        <v>5293</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9099,7 +9099,7 @@
         <v>58</v>
       </c>
       <c r="H101" s="16">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I101" s="29"/>
       <c r="J101" s="22">
@@ -9119,17 +9119,17 @@
         <v>98</v>
       </c>
       <c r="P101" s="16">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="Q101" s="16"/>
       <c r="R101" s="22">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S101" s="21">
         <v>45</v>
       </c>
       <c r="T101" s="16">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="U101" s="16"/>
       <c r="V101" s="22">
@@ -9146,20 +9146,20 @@
         <v>367</v>
       </c>
       <c r="AA101" s="21">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AB101" s="16">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="AC101" s="16"/>
       <c r="AD101" s="22">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AE101" s="21">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="AF101" s="16">
-        <v>5214</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9183,7 +9183,7 @@
         <v>59</v>
       </c>
       <c r="H102" s="16">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="I102" s="29"/>
       <c r="J102" s="22">
@@ -9203,7 +9203,7 @@
         <v>85</v>
       </c>
       <c r="P102" s="16">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="Q102" s="16"/>
       <c r="R102" s="22">
@@ -9213,7 +9213,7 @@
         <v>34</v>
       </c>
       <c r="T102" s="16">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="U102" s="16"/>
       <c r="V102" s="22">
@@ -9233,7 +9233,7 @@
         <v>433</v>
       </c>
       <c r="AB102" s="16">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="AC102" s="16"/>
       <c r="AD102" s="22">
@@ -9243,7 +9243,7 @@
         <v>769</v>
       </c>
       <c r="AF102" s="16">
-        <v>5224</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9267,7 +9267,7 @@
         <v>59</v>
       </c>
       <c r="H103" s="16">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="I103" s="29"/>
       <c r="J103" s="22">
@@ -9287,7 +9287,7 @@
         <v>109</v>
       </c>
       <c r="P103" s="16">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="Q103" s="16"/>
       <c r="R103" s="22">
@@ -9297,7 +9297,7 @@
         <v>32</v>
       </c>
       <c r="T103" s="16">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="U103" s="16"/>
       <c r="V103" s="22">
@@ -9314,20 +9314,20 @@
         <v>391</v>
       </c>
       <c r="AA103" s="21">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AB103" s="16">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="AC103" s="16"/>
       <c r="AD103" s="22">
         <v>831</v>
       </c>
       <c r="AE103" s="21">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="AF103" s="16">
-        <v>5263</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9351,7 +9351,7 @@
         <v>84</v>
       </c>
       <c r="H104" s="16">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I104" s="29"/>
       <c r="J104" s="22">
@@ -9371,7 +9371,7 @@
         <v>108</v>
       </c>
       <c r="P104" s="16">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="Q104" s="16"/>
       <c r="R104" s="22">
@@ -9381,7 +9381,7 @@
         <v>53</v>
       </c>
       <c r="T104" s="16">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="U104" s="16"/>
       <c r="V104" s="22">
@@ -9398,20 +9398,20 @@
         <v>408</v>
       </c>
       <c r="AA104" s="21">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AB104" s="16">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="AC104" s="16"/>
       <c r="AD104" s="22">
         <v>868</v>
       </c>
       <c r="AE104" s="21">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AF104" s="16">
-        <v>5223</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9435,7 +9435,7 @@
         <v>62</v>
       </c>
       <c r="H105" s="16">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I105" s="29"/>
       <c r="J105" s="22">
@@ -9455,7 +9455,7 @@
         <v>145</v>
       </c>
       <c r="P105" s="16">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="Q105" s="16"/>
       <c r="R105" s="22">
@@ -9465,7 +9465,7 @@
         <v>36</v>
       </c>
       <c r="T105" s="16">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="U105" s="16"/>
       <c r="V105" s="22">
@@ -9482,20 +9482,20 @@
         <v>433</v>
       </c>
       <c r="AA105" s="21">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AB105" s="16">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="AC105" s="16"/>
       <c r="AD105" s="22">
         <v>901</v>
       </c>
       <c r="AE105" s="21">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF105" s="16">
-        <v>5247</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9513,13 +9513,13 @@
       </c>
       <c r="E106" s="29"/>
       <c r="F106" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G106" s="21">
         <v>91</v>
       </c>
       <c r="H106" s="16">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I106" s="29"/>
       <c r="J106" s="22">
@@ -9539,7 +9539,7 @@
         <v>124</v>
       </c>
       <c r="P106" s="16">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="Q106" s="16"/>
       <c r="R106" s="22">
@@ -9549,7 +9549,7 @@
         <v>48</v>
       </c>
       <c r="T106" s="16">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="U106" s="16"/>
       <c r="V106" s="22">
@@ -9566,20 +9566,20 @@
         <v>445</v>
       </c>
       <c r="AA106" s="21">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AB106" s="16">
-        <v>1316</v>
+        <v>1298</v>
       </c>
       <c r="AC106" s="16"/>
       <c r="AD106" s="22">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AE106" s="21">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AF106" s="16">
-        <v>5253</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9597,13 +9597,13 @@
       </c>
       <c r="E107" s="29"/>
       <c r="F107" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G107" s="21">
         <v>68</v>
       </c>
       <c r="H107" s="16">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="I107" s="29"/>
       <c r="J107" s="22">
@@ -9617,13 +9617,13 @@
       </c>
       <c r="M107" s="22"/>
       <c r="N107" s="22">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O107" s="21">
         <v>109</v>
       </c>
       <c r="P107" s="16">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="Q107" s="16"/>
       <c r="R107" s="22">
@@ -9633,7 +9633,7 @@
         <v>48</v>
       </c>
       <c r="T107" s="16">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="U107" s="16"/>
       <c r="V107" s="22">
@@ -9650,20 +9650,20 @@
         <v>458</v>
       </c>
       <c r="AA107" s="21">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AB107" s="16">
-        <v>1286</v>
+        <v>1267</v>
       </c>
       <c r="AC107" s="16"/>
       <c r="AD107" s="22">
         <v>981</v>
       </c>
       <c r="AE107" s="21">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AF107" s="16">
-        <v>5287</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9673,7 +9673,7 @@
       <c r="B108" s="22">
         <v>63</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C108" s="21">
         <v>63</v>
       </c>
       <c r="D108" s="16">
@@ -9683,47 +9683,47 @@
       <c r="F108" s="22">
         <v>94</v>
       </c>
-      <c r="G108" s="22">
+      <c r="G108" s="21">
         <v>76</v>
       </c>
       <c r="H108" s="16">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="I108" s="29"/>
       <c r="J108" s="22">
         <v>75</v>
       </c>
-      <c r="K108" s="22">
-        <v>84</v>
+      <c r="K108" s="21">
+        <v>89</v>
       </c>
       <c r="L108" s="16">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="M108" s="22"/>
       <c r="N108" s="22">
         <v>112</v>
       </c>
-      <c r="O108" s="22">
+      <c r="O108" s="21">
         <v>110</v>
       </c>
       <c r="P108" s="16">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="Q108" s="16"/>
       <c r="R108" s="22">
         <v>73</v>
       </c>
-      <c r="S108" s="22">
+      <c r="S108" s="21">
         <v>51</v>
       </c>
       <c r="T108" s="16">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="U108" s="16"/>
       <c r="V108" s="22">
         <v>112</v>
       </c>
-      <c r="W108" s="22">
+      <c r="W108" s="21">
         <v>81</v>
       </c>
       <c r="X108" s="16">
@@ -9733,21 +9733,21 @@
       <c r="Z108" s="22">
         <v>464</v>
       </c>
-      <c r="AA108" s="22">
+      <c r="AA108" s="21">
         <v>525</v>
       </c>
       <c r="AB108" s="16">
-        <v>1225</v>
+        <v>1206</v>
       </c>
       <c r="AC108" s="16"/>
       <c r="AD108" s="22">
         <v>993</v>
       </c>
-      <c r="AE108" s="22">
-        <v>990</v>
+      <c r="AE108" s="21">
+        <v>995</v>
       </c>
       <c r="AF108" s="16">
-        <v>5290</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9758,17 +9758,17 @@
         <v>66</v>
       </c>
       <c r="C109" s="22">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D109" s="16">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="22">
         <v>91</v>
       </c>
       <c r="G109" s="22">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H109" s="16">
         <v>812</v>
@@ -9778,10 +9778,10 @@
         <v>76</v>
       </c>
       <c r="K109" s="22">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L109" s="16">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="M109" s="22"/>
       <c r="N109" s="22">
@@ -9791,47 +9791,47 @@
         <v>152</v>
       </c>
       <c r="P109" s="16">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="Q109" s="16"/>
       <c r="R109" s="22">
         <v>74</v>
       </c>
       <c r="S109" s="22">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T109" s="16">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="U109" s="16"/>
       <c r="V109" s="22">
         <v>121</v>
       </c>
       <c r="W109" s="22">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="X109" s="16">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Y109" s="16"/>
       <c r="Z109" s="22">
         <v>464</v>
       </c>
       <c r="AA109" s="22">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AB109" s="16">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="AC109" s="16"/>
       <c r="AD109" s="22">
         <v>1007</v>
       </c>
       <c r="AE109" s="22">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AF109" s="16">
-        <v>5250</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9845,7 +9845,7 @@
         <v>86</v>
       </c>
       <c r="D110" s="16">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E110" s="29"/>
       <c r="F110" s="22">
@@ -9862,10 +9862,10 @@
         <v>78</v>
       </c>
       <c r="K110" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L110" s="16">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="M110" s="22"/>
       <c r="N110" s="22">
@@ -9875,17 +9875,17 @@
         <v>129</v>
       </c>
       <c r="P110" s="16">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="Q110" s="16"/>
       <c r="R110" s="22">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S110" s="22">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T110" s="16">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="U110" s="16"/>
       <c r="V110" s="22">
@@ -9895,7 +9895,7 @@
         <v>85</v>
       </c>
       <c r="X110" s="16">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="Y110" s="16"/>
       <c r="Z110" s="22">
@@ -9905,17 +9905,17 @@
         <v>490</v>
       </c>
       <c r="AB110" s="16">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="AC110" s="16"/>
       <c r="AD110" s="22">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AE110" s="22">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="AF110" s="16">
-        <v>5210</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -9929,17 +9929,17 @@
         <v>81</v>
       </c>
       <c r="D111" s="16">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E111" s="29"/>
       <c r="F111" s="22">
         <v>101</v>
       </c>
       <c r="G111" s="22">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H111" s="16">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="I111" s="29"/>
       <c r="J111" s="22">
@@ -9949,7 +9949,7 @@
         <v>92</v>
       </c>
       <c r="L111" s="16">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M111" s="22"/>
       <c r="N111" s="22">
@@ -9959,17 +9959,17 @@
         <v>128</v>
       </c>
       <c r="P111" s="16">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="Q111" s="16"/>
       <c r="R111" s="22">
         <v>75</v>
       </c>
       <c r="S111" s="22">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T111" s="16">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="U111" s="16"/>
       <c r="V111" s="22">
@@ -9979,27 +9979,27 @@
         <v>133</v>
       </c>
       <c r="X111" s="16">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Y111" s="16"/>
       <c r="Z111" s="22">
         <v>462</v>
       </c>
       <c r="AA111" s="22">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="AB111" s="16">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="AC111" s="16"/>
       <c r="AD111" s="22">
         <v>1026</v>
       </c>
       <c r="AE111" s="22">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="AF111" s="16">
-        <v>5115</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10013,7 +10013,7 @@
         <v>60</v>
       </c>
       <c r="D112" s="16">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E112" s="29"/>
       <c r="F112" s="22">
@@ -10023,17 +10023,17 @@
         <v>120</v>
       </c>
       <c r="H112" s="16">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="I112" s="29"/>
       <c r="J112" s="22">
         <v>79</v>
       </c>
       <c r="K112" s="22">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L112" s="16">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="M112" s="22"/>
       <c r="N112" s="22">
@@ -10043,17 +10043,17 @@
         <v>139</v>
       </c>
       <c r="P112" s="16">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="Q112" s="16"/>
       <c r="R112" s="22">
         <v>74</v>
       </c>
       <c r="S112" s="22">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T112" s="16">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="U112" s="16"/>
       <c r="V112" s="22">
@@ -10063,7 +10063,7 @@
         <v>112</v>
       </c>
       <c r="X112" s="16">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Y112" s="16"/>
       <c r="Z112" s="22">
@@ -10073,17 +10073,17 @@
         <v>490</v>
       </c>
       <c r="AB112" s="16">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="AC112" s="16"/>
       <c r="AD112" s="22">
         <v>1046</v>
       </c>
       <c r="AE112" s="22">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AF112" s="16">
-        <v>5104</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10097,37 +10097,37 @@
         <v>79</v>
       </c>
       <c r="D113" s="16">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E113" s="29"/>
       <c r="F113" s="22">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G113" s="22">
         <v>95</v>
       </c>
       <c r="H113" s="16">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="I113" s="29"/>
       <c r="J113" s="22">
         <v>80</v>
       </c>
       <c r="K113" s="22">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L113" s="16">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M113" s="22"/>
       <c r="N113" s="22">
         <v>114</v>
       </c>
       <c r="O113" s="22">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P113" s="16">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="Q113" s="16"/>
       <c r="R113" s="22">
@@ -10137,7 +10137,7 @@
         <v>69</v>
       </c>
       <c r="T113" s="16">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="U113" s="16"/>
       <c r="V113" s="22">
@@ -10147,27 +10147,27 @@
         <v>110</v>
       </c>
       <c r="X113" s="16">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="Y113" s="16"/>
       <c r="Z113" s="22">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AA113" s="22">
         <v>490</v>
       </c>
       <c r="AB113" s="16">
-        <v>1044</v>
+        <v>1013</v>
       </c>
       <c r="AC113" s="16"/>
       <c r="AD113" s="22">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AE113" s="22">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="AF113" s="16">
-        <v>5128</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10181,7 +10181,7 @@
         <v>85</v>
       </c>
       <c r="D114" s="16">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E114" s="29"/>
       <c r="F114" s="22">
@@ -10191,17 +10191,17 @@
         <v>127</v>
       </c>
       <c r="H114" s="16">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="I114" s="29"/>
       <c r="J114" s="22">
         <v>80</v>
       </c>
       <c r="K114" s="22">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L114" s="16">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="M114" s="22"/>
       <c r="N114" s="22">
@@ -10211,7 +10211,7 @@
         <v>140</v>
       </c>
       <c r="P114" s="16">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="Q114" s="16"/>
       <c r="R114" s="22">
@@ -10221,7 +10221,7 @@
         <v>64</v>
       </c>
       <c r="T114" s="16">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U114" s="16"/>
       <c r="V114" s="22">
@@ -10231,7 +10231,7 @@
         <v>110</v>
       </c>
       <c r="X114" s="16">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="Y114" s="16"/>
       <c r="Z114" s="22">
@@ -10241,17 +10241,17 @@
         <v>521</v>
       </c>
       <c r="AB114" s="16">
-        <v>997</v>
+        <v>966</v>
       </c>
       <c r="AC114" s="16"/>
       <c r="AD114" s="22">
         <v>1043</v>
       </c>
       <c r="AE114" s="22">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="AF114" s="16">
-        <v>5033</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10265,7 +10265,7 @@
         <v>71</v>
       </c>
       <c r="D115" s="16">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E115" s="29"/>
       <c r="F115" s="22">
@@ -10275,27 +10275,27 @@
         <v>110</v>
       </c>
       <c r="H115" s="16">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="I115" s="29"/>
       <c r="J115" s="22">
         <v>80</v>
       </c>
       <c r="K115" s="22">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L115" s="16">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M115" s="22"/>
       <c r="N115" s="22">
         <v>116</v>
       </c>
       <c r="O115" s="22">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P115" s="16">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q115" s="16"/>
       <c r="R115" s="22">
@@ -10305,7 +10305,7 @@
         <v>64</v>
       </c>
       <c r="T115" s="16">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="U115" s="16"/>
       <c r="V115" s="22">
@@ -10315,7 +10315,7 @@
         <v>108</v>
       </c>
       <c r="X115" s="16">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Y115" s="16"/>
       <c r="Z115" s="22">
@@ -10325,7 +10325,7 @@
         <v>482</v>
       </c>
       <c r="AB115" s="16">
-        <v>987</v>
+        <v>956</v>
       </c>
       <c r="AC115" s="16"/>
       <c r="AD115" s="22">
@@ -10335,7 +10335,7 @@
         <v>1061</v>
       </c>
       <c r="AF115" s="16">
-        <v>4998</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10346,40 +10346,40 @@
         <v>73</v>
       </c>
       <c r="C116" s="22">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D116" s="16">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E116" s="29"/>
       <c r="F116" s="22">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G116" s="22">
         <v>110</v>
       </c>
       <c r="H116" s="16">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="I116" s="29"/>
       <c r="J116" s="22">
         <v>80</v>
       </c>
       <c r="K116" s="22">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L116" s="16">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M116" s="22"/>
       <c r="N116" s="22">
         <v>116</v>
       </c>
       <c r="O116" s="22">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P116" s="16">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q116" s="16"/>
       <c r="R116" s="22">
@@ -10389,7 +10389,7 @@
         <v>63</v>
       </c>
       <c r="T116" s="16">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U116" s="16"/>
       <c r="V116" s="22">
@@ -10399,7 +10399,7 @@
         <v>112</v>
       </c>
       <c r="X116" s="16">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Y116" s="16"/>
       <c r="Z116" s="22">
@@ -10409,17 +10409,17 @@
         <v>523</v>
       </c>
       <c r="AB116" s="16">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="AC116" s="16"/>
       <c r="AD116" s="22">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AE116" s="22">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="AF116" s="16">
-        <v>4916</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10433,17 +10433,17 @@
         <v>65</v>
       </c>
       <c r="D117" s="16">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="22">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G117" s="22">
         <v>111</v>
       </c>
       <c r="H117" s="16">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="I117" s="29"/>
       <c r="J117" s="22">
@@ -10453,7 +10453,7 @@
         <v>91</v>
       </c>
       <c r="L117" s="16">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M117" s="22"/>
       <c r="N117" s="22">
@@ -10463,7 +10463,7 @@
         <v>118</v>
       </c>
       <c r="P117" s="16">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q117" s="16"/>
       <c r="R117" s="22">
@@ -10473,7 +10473,7 @@
         <v>62</v>
       </c>
       <c r="T117" s="16">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="U117" s="16"/>
       <c r="V117" s="22">
@@ -10483,7 +10483,7 @@
         <v>129</v>
       </c>
       <c r="X117" s="16">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="Y117" s="16"/>
       <c r="Z117" s="22">
@@ -10493,17 +10493,17 @@
         <v>506</v>
       </c>
       <c r="AB117" s="16">
-        <v>899</v>
+        <v>868</v>
       </c>
       <c r="AC117" s="16"/>
       <c r="AD117" s="22">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AE117" s="22">
         <v>1082</v>
       </c>
       <c r="AF117" s="16">
-        <v>4853</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -10517,17 +10517,17 @@
         <v>58</v>
       </c>
       <c r="D118" s="16">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E118" s="29"/>
       <c r="F118" s="22">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G118" s="22">
         <v>104</v>
       </c>
       <c r="H118" s="16">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="I118" s="29"/>
       <c r="J118" s="22">
@@ -10537,17 +10537,17 @@
         <v>84</v>
       </c>
       <c r="L118" s="16">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M118" s="22"/>
       <c r="N118" s="22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O118" s="22">
         <v>107</v>
       </c>
       <c r="P118" s="16">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q118" s="16"/>
       <c r="R118" s="22">
@@ -10557,7 +10557,7 @@
         <v>50</v>
       </c>
       <c r="T118" s="16">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U118" s="16"/>
       <c r="V118" s="22">
@@ -10567,7 +10567,7 @@
         <v>105</v>
       </c>
       <c r="X118" s="16">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="Y118" s="16"/>
       <c r="Z118" s="22">
@@ -10577,20 +10577,20 @@
         <v>492</v>
       </c>
       <c r="AB118" s="16">
-        <v>877</v>
+        <v>846</v>
       </c>
       <c r="AC118" s="16"/>
       <c r="AD118" s="22">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="AE118" s="22">
         <v>1000</v>
       </c>
       <c r="AF118" s="16">
-        <v>4828</v>
-      </c>
-    </row>
-    <row r="119" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11">
         <v>45078</v>
       </c>
@@ -10598,20 +10598,20 @@
         <v>51</v>
       </c>
       <c r="C119" s="22">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D119" s="16">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="22">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G119" s="22">
         <v>101</v>
       </c>
       <c r="H119" s="16">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="I119" s="29"/>
       <c r="J119" s="22">
@@ -10621,17 +10621,17 @@
         <v>80</v>
       </c>
       <c r="L119" s="16">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M119" s="22"/>
       <c r="N119" s="22">
         <v>92</v>
       </c>
       <c r="O119" s="22">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P119" s="16">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q119" s="16"/>
       <c r="R119" s="22">
@@ -10641,7 +10641,7 @@
         <v>47</v>
       </c>
       <c r="T119" s="16">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="U119" s="16"/>
       <c r="V119" s="22">
@@ -10651,98 +10651,182 @@
         <v>102</v>
       </c>
       <c r="X119" s="16">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Y119" s="16"/>
       <c r="Z119" s="22">
         <v>460</v>
       </c>
       <c r="AA119" s="22">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="AB119" s="16">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AC119" s="16"/>
       <c r="AD119" s="22">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AE119" s="22">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="AF119" s="16">
-        <v>4804</v>
-      </c>
-    </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
-      <c r="AA120" s="8"/>
-      <c r="AB120" s="8"/>
-      <c r="AC120" s="8"/>
-      <c r="AD120" s="8"/>
-      <c r="AE120" s="8"/>
-      <c r="AF120" s="8"/>
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A120" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B120" s="22">
+        <v>51</v>
+      </c>
+      <c r="C120" s="22">
+        <v>51</v>
+      </c>
+      <c r="D120" s="16">
+        <v>739</v>
+      </c>
+      <c r="E120" s="29"/>
+      <c r="F120" s="22">
+        <v>92</v>
+      </c>
+      <c r="G120" s="22">
+        <v>98</v>
+      </c>
+      <c r="H120" s="16">
+        <v>710</v>
+      </c>
+      <c r="I120" s="29"/>
+      <c r="J120" s="22">
+        <v>70</v>
+      </c>
+      <c r="K120" s="22">
+        <v>80</v>
+      </c>
+      <c r="L120" s="16">
+        <v>500</v>
+      </c>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22">
+        <v>92</v>
+      </c>
+      <c r="O120" s="22">
+        <v>92</v>
+      </c>
+      <c r="P120" s="16">
+        <v>480</v>
+      </c>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="22">
+        <v>57</v>
+      </c>
+      <c r="S120" s="22">
+        <v>45</v>
+      </c>
+      <c r="T120" s="16">
+        <v>786</v>
+      </c>
+      <c r="U120" s="16"/>
+      <c r="V120" s="22">
+        <v>105</v>
+      </c>
+      <c r="W120" s="22">
+        <v>106</v>
+      </c>
+      <c r="X120" s="16">
+        <v>716</v>
+      </c>
+      <c r="Y120" s="16"/>
+      <c r="Z120" s="22">
+        <v>460</v>
+      </c>
+      <c r="AA120" s="22">
+        <v>460</v>
+      </c>
+      <c r="AB120" s="16">
+        <v>856</v>
+      </c>
+      <c r="AC120" s="16"/>
+      <c r="AD120" s="22">
+        <v>927</v>
+      </c>
+      <c r="AE120" s="22">
+        <v>932</v>
+      </c>
+      <c r="AF120" s="16">
+        <v>4787</v>
+      </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="D121" s="30"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="30"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="30"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="30"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="30"/>
-      <c r="U121" s="6"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
-      <c r="X121" s="30"/>
-      <c r="Y121" s="6"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
-      <c r="AB121" s="31"/>
-      <c r="AC121" s="6"/>
-      <c r="AD121" s="5"/>
-      <c r="AF121" s="30"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="8"/>
+      <c r="AD121" s="8"/>
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="AA122" s="4"/>
+      <c r="D122" s="30"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="30"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="30"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="30"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="31"/>
+      <c r="AC122" s="6"/>
+      <c r="AD122" s="5"/>
+      <c r="AF122" s="30"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="X123" s="7"/>
-      <c r="Y123" s="7"/>
-      <c r="AB123"/>
+      <c r="AA123" s="4"/>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="X124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="AB124"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10764,8 +10848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10776,10 +10860,10 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C2" s="24">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -10790,10 +10874,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="23">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C3" s="23">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D3" s="25">
         <v>0</v>
@@ -10818,10 +10902,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="23">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C5" s="23">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="D5" s="25">
         <v>-10</v>
@@ -10832,13 +10916,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="23">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C6" s="23">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D6" s="25">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10846,13 +10930,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="23">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="C7" s="23">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="D7" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10860,13 +10944,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="23">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C8" s="23">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D8" s="25">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -10874,13 +10958,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="27">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C9" s="27">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D9" s="28">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -10888,13 +10972,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="23">
-        <v>4828</v>
+        <v>4792</v>
       </c>
       <c r="C10" s="23">
-        <v>4804</v>
+        <v>4787</v>
       </c>
       <c r="D10" s="25">
-        <v>-24</v>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
